--- a/performance.xlsx
+++ b/performance.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pioantonioperugini/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ermannonicoletti/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2651DA21-A289-1443-B268-259449ED590A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA5BF7-17D8-2947-BC40-6A9264AD3E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20320" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
+    <workbookView xWindow="12480" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>nodi</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Situazione di partenza</t>
+  </si>
+  <si>
+    <t>Opt1</t>
   </si>
 </sst>
 </file>
@@ -180,14 +183,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2363,171 +2366,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC550097-D982-EE4B-95F5-AEBD768E6E3D}">
-  <dimension ref="A5:F15"/>
+  <dimension ref="A5:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>14.89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f>F$7/F8</f>
         <v>1.5542797494780793</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f>D8/B8</f>
         <v>0.77713987473903967</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>9.58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f t="shared" ref="D9:D15" si="0">F$7/F9</f>
         <v>2.925343811394892</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f t="shared" ref="E9:E15" si="1">D9/B9</f>
         <v>0.97511460379829729</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>5.09</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>1</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>4.2181303116147308</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f t="shared" si="1"/>
         <v>0.84362606232294612</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>3.53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>8</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>8</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>5.2801418439716317</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <f t="shared" si="1"/>
         <v>0.66001773049645396</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>2.82</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>1</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>10</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>5.0819112627986351</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f t="shared" si="1"/>
         <v>0.50819112627986351</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>2.93</v>
       </c>
     </row>
@@ -2554,24 +2557,24 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>2</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>20</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>20</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>3.6228710462287101</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f t="shared" si="1"/>
         <v>0.1811435523114355</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>4.1100000000000003</v>
       </c>
     </row>
@@ -2597,9 +2600,236 @@
         <v>5.12</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6">
+        <f>F$7/F27</f>
+        <v>1.6237731733914942</v>
+      </c>
+      <c r="E27" s="6">
+        <f>D27/B27</f>
+        <v>0.81188658669574709</v>
+      </c>
+      <c r="F27" s="7">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" ref="D28:D34" si="2">F$7/F28</f>
+        <v>3.0892116182572615</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" ref="E28:E34" si="3">D28/B28</f>
+        <v>1.0297372060857539</v>
+      </c>
+      <c r="F28" s="7">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6">
+        <v>5</v>
+      </c>
+      <c r="C29" s="6">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="2"/>
+        <v>5.2989323843416374</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0597864768683274</v>
+      </c>
+      <c r="F29" s="7">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6">
+        <v>8</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="2"/>
+        <v>7.3712871287128712</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="3"/>
+        <v>0.9214108910891089</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>1</v>
+      </c>
+      <c r="B31" s="6">
+        <v>10</v>
+      </c>
+      <c r="C31" s="6">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6">
+        <f t="shared" si="2"/>
+        <v>8.3184357541899434</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="3"/>
+        <v>0.83184357541899434</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2">
+        <v>16</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="2"/>
+        <v>8.2722222222222221</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="3"/>
+        <v>0.51701388888888888</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>2</v>
+      </c>
+      <c r="B33" s="6">
+        <v>20</v>
+      </c>
+      <c r="C33" s="6">
+        <v>20</v>
+      </c>
+      <c r="D33" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5559701492537314</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="3"/>
+        <v>0.27779850746268658</v>
+      </c>
+      <c r="F33" s="7">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2">
+        <v>32</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="2"/>
+        <v>4.1019283746556479</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="3"/>
+        <v>0.128185261707989</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3.63</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ermannonicoletti/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pioantonioperugini/CLionProjects/MPIrecommendationsystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA5BF7-17D8-2947-BC40-6A9264AD3E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F10CA80-592B-9749-99C5-E855C00FEA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
+    <workbookView xWindow="4320" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -860,6 +860,658 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$26:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$26:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6237731733914942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0892116182572615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2989323843416374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3712871287128712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3184357541899434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2722222222222221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5559701492537314</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1019283746556479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16C2-4341-9DB4-5970B8BD52EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="668494400"/>
+        <c:axId val="668496112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="668494400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668496112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="668496112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668494400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>effeciency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$26:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$26:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81188658669574709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0297372060857539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0597864768683274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9214108910891089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83184357541899434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51701388888888888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27779850746268658</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.128185261707989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80F5-8343-A0E2-5AA183E2E89E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="211965120"/>
+        <c:axId val="211966848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="211965120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211966848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="211966848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="211965120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -940,6 +1592,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1457,6 +2189,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2012,16 +3776,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2041,6 +3805,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CEB969B-0E9D-CB35-8460-E9D48718551E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FEEC3C7-896E-209B-4F8D-FEA154E800C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2368,8 +4204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC550097-D982-EE4B-95F5-AEBD768E6E3D}">
   <dimension ref="A5:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pioantonioperugini/CLionProjects/MPIrecommendationsystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F10CA80-592B-9749-99C5-E855C00FEA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625A3A92-0AC3-C146-BCCA-3E3E2B034234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>nodi</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>Opt1</t>
+  </si>
+  <si>
+    <t>IMPROV 1 -&gt; MPI_DATA_TYPE per ridurre le send</t>
+  </si>
+  <si>
+    <t>IMPORV2 -&gt; tutti inizializzano i propri dati per cercare di evitare le broadcast dato che dopo i 16 processi le prestazioni per via della rete peggiorano, ma le cose andavano peggio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPROV3 -&gt; calcoliamo la correlazione man mano che riceve cosi impiega il tempo morto </t>
   </si>
 </sst>
 </file>
@@ -178,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -189,6 +198,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1512,6 +1524,658 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$46:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$46:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5271794871794873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9138943248532287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2989323843416374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2281553398058254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7150259067357521</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7588235294117656</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3632478632478637</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.609907120743034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63DD-EE4D-80C3-FFAE7FC7BAEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="437653120"/>
+        <c:axId val="437654832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="437653120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437654832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="437654832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437653120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>effeciency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$46:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$46:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76358974358974363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97129810828440954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0597864768683274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90351941747572817</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77150259067357518</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54742647058823535</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3181623931623932</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14405959752321981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3931-3747-BEF7-8C652932DB98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="212416832"/>
+        <c:axId val="212418560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="212416832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212418560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="212418560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212416832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1672,6 +2336,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3221,6 +3965,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3877,6 +5653,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADFE63EA-D333-BD26-C817-A7B1DFFBD90B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A86D06-0626-D029-1AFD-E99CE0552316}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4202,10 +6050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC550097-D982-EE4B-95F5-AEBD768E6E3D}">
-  <dimension ref="A5:F34"/>
+  <dimension ref="A5:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4436,6 +6284,14 @@
         <v>5.12</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>7</v>
@@ -4618,7 +6474,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>2</v>
       </c>
@@ -4640,7 +6496,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -4662,10 +6518,261 @@
         <v>3.63</v>
       </c>
     </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>1</v>
+      </c>
+      <c r="B47" s="6">
+        <v>2</v>
+      </c>
+      <c r="C47" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" s="6">
+        <f>F$7/F47</f>
+        <v>1.5271794871794873</v>
+      </c>
+      <c r="E47" s="6">
+        <f>D47/B47</f>
+        <v>0.76358974358974363</v>
+      </c>
+      <c r="F47" s="7">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6">
+        <v>3</v>
+      </c>
+      <c r="C48" s="6">
+        <v>3</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" ref="D48:D54" si="4">F$7/F48</f>
+        <v>2.9138943248532287</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" ref="E48:E54" si="5">D48/B48</f>
+        <v>0.97129810828440954</v>
+      </c>
+      <c r="F48" s="7">
+        <v>5.1100000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>1</v>
+      </c>
+      <c r="B49" s="6">
+        <v>5</v>
+      </c>
+      <c r="C49" s="6">
+        <v>5</v>
+      </c>
+      <c r="D49" s="6">
+        <f t="shared" si="4"/>
+        <v>5.2989323843416374</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="5"/>
+        <v>1.0597864768683274</v>
+      </c>
+      <c r="F49" s="7">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>1</v>
+      </c>
+      <c r="B50" s="6">
+        <v>8</v>
+      </c>
+      <c r="C50" s="6">
+        <v>8</v>
+      </c>
+      <c r="D50" s="6">
+        <f t="shared" si="4"/>
+        <v>7.2281553398058254</v>
+      </c>
+      <c r="E50" s="6">
+        <f t="shared" si="5"/>
+        <v>0.90351941747572817</v>
+      </c>
+      <c r="F50" s="8">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>1</v>
+      </c>
+      <c r="B51" s="6">
+        <v>10</v>
+      </c>
+      <c r="C51" s="6">
+        <v>10</v>
+      </c>
+      <c r="D51" s="6">
+        <f t="shared" si="4"/>
+        <v>7.7150259067357521</v>
+      </c>
+      <c r="E51" s="6">
+        <f t="shared" si="5"/>
+        <v>0.77150259067357518</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2">
+        <v>16</v>
+      </c>
+      <c r="C52" s="2">
+        <v>16</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="4"/>
+        <v>8.7588235294117656</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="5"/>
+        <v>0.54742647058823535</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>2</v>
+      </c>
+      <c r="B53" s="6">
+        <v>20</v>
+      </c>
+      <c r="C53" s="6">
+        <v>20</v>
+      </c>
+      <c r="D53" s="6">
+        <f t="shared" si="4"/>
+        <v>6.3632478632478637</v>
+      </c>
+      <c r="E53" s="6">
+        <f t="shared" si="5"/>
+        <v>0.3181623931623932</v>
+      </c>
+      <c r="F53" s="7">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2">
+        <v>32</v>
+      </c>
+      <c r="C54" s="2">
+        <v>32</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="4"/>
+        <v>4.609907120743034</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14405959752321981</v>
+      </c>
+      <c r="F54" s="3">
+        <v>3.23</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pioantonioperugini/CLionProjects/MPIrecommendationsystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625A3A92-0AC3-C146-BCCA-3E3E2B034234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A80BFE-FC25-0749-B638-E5ED9A61EE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>nodi</t>
   </si>
@@ -62,13 +62,22 @@
     <t>Opt1</t>
   </si>
   <si>
-    <t>IMPROV 1 -&gt; MPI_DATA_TYPE per ridurre le send</t>
-  </si>
-  <si>
     <t>IMPORV2 -&gt; tutti inizializzano i propri dati per cercare di evitare le broadcast dato che dopo i 16 processi le prestazioni per via della rete peggiorano, ma le cose andavano peggio</t>
   </si>
   <si>
     <t xml:space="preserve">IMPROV3 -&gt; calcoliamo la correlazione man mano che riceve cosi impiega il tempo morto </t>
+  </si>
+  <si>
+    <t>Opt2</t>
+  </si>
+  <si>
+    <t>Opt3</t>
+  </si>
+  <si>
+    <t>IMPROV 1 -&gt; MPI_DATA_TYPE per ridurre le send dei worker verso il master</t>
+  </si>
+  <si>
+    <t>IMPROV4 -&gt; riduciamo le send da master verso i worker usando un mpi_data_type</t>
   </si>
 </sst>
 </file>
@@ -6050,10 +6059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC550097-D982-EE4B-95F5-AEBD768E6E3D}">
-  <dimension ref="A5:M54"/>
+  <dimension ref="A5:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="X47" sqref="X47"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6286,7 +6295,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -6294,7 +6303,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -6520,7 +6529,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -6537,12 +6546,12 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -6766,8 +6775,240 @@
         <v>3.23</v>
       </c>
     </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>1</v>
+      </c>
+      <c r="B65" s="6">
+        <v>1</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1</v>
+      </c>
+      <c r="D65" s="6">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>1</v>
+      </c>
+      <c r="B66" s="6">
+        <v>2</v>
+      </c>
+      <c r="C66" s="6">
+        <v>2</v>
+      </c>
+      <c r="D66" s="6">
+        <f>F$7/F66</f>
+        <v>1.5925133689839572</v>
+      </c>
+      <c r="E66" s="6">
+        <f>D66/B66</f>
+        <v>0.79625668449197862</v>
+      </c>
+      <c r="F66" s="7">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>1</v>
+      </c>
+      <c r="B67" s="6">
+        <v>3</v>
+      </c>
+      <c r="C67" s="6">
+        <v>3</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" ref="D67:D73" si="6">F$7/F67</f>
+        <v>3.1150627615062763</v>
+      </c>
+      <c r="E67" s="6">
+        <f t="shared" ref="E67:E73" si="7">D67/B67</f>
+        <v>1.0383542538354253</v>
+      </c>
+      <c r="F67" s="7">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>1</v>
+      </c>
+      <c r="B68" s="6">
+        <v>5</v>
+      </c>
+      <c r="C68" s="6">
+        <v>5</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" si="6"/>
+        <v>5.2989323843416374</v>
+      </c>
+      <c r="E68" s="6">
+        <f t="shared" si="7"/>
+        <v>1.0597864768683274</v>
+      </c>
+      <c r="F68" s="7">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>1</v>
+      </c>
+      <c r="B69" s="6">
+        <v>8</v>
+      </c>
+      <c r="C69" s="6">
+        <v>8</v>
+      </c>
+      <c r="D69" s="6">
+        <f t="shared" si="6"/>
+        <v>7.2281553398058254</v>
+      </c>
+      <c r="E69" s="6">
+        <f t="shared" si="7"/>
+        <v>0.90351941747572817</v>
+      </c>
+      <c r="F69" s="8">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <v>1</v>
+      </c>
+      <c r="B70" s="6">
+        <v>10</v>
+      </c>
+      <c r="C70" s="6">
+        <v>10</v>
+      </c>
+      <c r="D70" s="6">
+        <f t="shared" si="6"/>
+        <v>7.7150259067357521</v>
+      </c>
+      <c r="E70" s="6">
+        <f t="shared" si="7"/>
+        <v>0.77150259067357518</v>
+      </c>
+      <c r="F70" s="7">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2">
+        <v>16</v>
+      </c>
+      <c r="C71" s="2">
+        <v>16</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="6"/>
+        <v>8.7588235294117656</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="7"/>
+        <v>0.54742647058823535</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <v>2</v>
+      </c>
+      <c r="B72" s="6">
+        <v>20</v>
+      </c>
+      <c r="C72" s="6">
+        <v>20</v>
+      </c>
+      <c r="D72" s="6">
+        <f t="shared" si="6"/>
+        <v>6.3632478632478637</v>
+      </c>
+      <c r="E72" s="6">
+        <f t="shared" si="7"/>
+        <v>0.3181623931623932</v>
+      </c>
+      <c r="F72" s="7">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>2</v>
+      </c>
+      <c r="B73" s="2">
+        <v>32</v>
+      </c>
+      <c r="C73" s="2">
+        <v>32</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="6"/>
+        <v>4.609907120743034</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="7"/>
+        <v>0.14405959752321981</v>
+      </c>
+      <c r="F73" s="3">
+        <v>3.23</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A63:F63"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A20:D20"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pioantonioperugini/CLionProjects/MPIrecommendationsystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F10CA80-592B-9749-99C5-E855C00FEA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D43F7C7-4780-3247-A0B1-82184C0AE99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>nodi</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Opt1</t>
+  </si>
+  <si>
+    <t>OPT2 -&gt; tutti inizializzano insieme senza che il master inizializzi e poi faccia la broadcast -&gt; tutto piu lento</t>
+  </si>
+  <si>
+    <t>OPT1 -&gt; i worker mandano al master un oggetto correlation incece che a,b,correlation</t>
   </si>
 </sst>
 </file>
@@ -178,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -189,6 +195,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4202,10 +4211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC550097-D982-EE4B-95F5-AEBD768E6E3D}">
-  <dimension ref="A5:F34"/>
+  <dimension ref="A5:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4436,7 +4445,18 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>7</v>
       </c>
@@ -4446,7 +4466,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>0</v>
       </c>
@@ -4466,7 +4486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -4486,7 +4506,7 @@
         <v>14.89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>1</v>
       </c>
@@ -4508,7 +4528,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>1</v>
       </c>
@@ -4530,7 +4550,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -4552,7 +4572,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>1</v>
       </c>
@@ -4574,7 +4594,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -4596,7 +4616,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -4618,7 +4638,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>2</v>
       </c>
@@ -4640,7 +4660,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -4662,10 +4682,24 @@
         <v>3.63</v>
       </c>
     </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A39:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pioantonioperugini/CLionProjects/MPIrecommendationsystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D43F7C7-4780-3247-A0B1-82184C0AE99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D50032-E8F2-004F-98D5-D42BA2290333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>nodi</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>OPT1 -&gt; i worker mandano al master un oggetto correlation incece che a,b,correlation</t>
+  </si>
+  <si>
+    <t>OPT3 -&gt; il master manda ai worker direttamente un oggetto correlazione invece che a,b.</t>
   </si>
 </sst>
 </file>
@@ -1521,6 +1524,658 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$46:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$46:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6308871851040525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1816239316239319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6832061068702293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3651685393258433</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9266666666666676</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.02962962962963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.990610328638498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.004032258064516</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69F2-6743-AA20-A6704A6602AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="68407439"/>
+        <c:axId val="69116351"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="68407439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69116351"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69116351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68407439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>effeciency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$46:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$46:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81544359255202625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0605413105413106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1366412213740458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0456460674157304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99266666666666681</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68935185185185188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3495305164319249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18762600806451613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72CA-FC4C-8693-A944BD6EEBC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="55844927"/>
+        <c:axId val="56206223"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="55844927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56206223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56206223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55844927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1681,6 +2336,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3230,6 +3965,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3886,6 +5653,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084829B5-1F50-E95B-117C-6D339445D931}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB876FB-1CEE-1C2C-C0E9-392D78CF8447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4211,10 +6050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC550097-D982-EE4B-95F5-AEBD768E6E3D}">
-  <dimension ref="A5:H39"/>
+  <dimension ref="A5:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:H39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4694,12 +6533,252 @@
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>1</v>
+      </c>
+      <c r="B47" s="6">
+        <v>2</v>
+      </c>
+      <c r="C47" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" s="6">
+        <f>F$7/F47</f>
+        <v>1.6308871851040525</v>
+      </c>
+      <c r="E47" s="6">
+        <f>D47/B47</f>
+        <v>0.81544359255202625</v>
+      </c>
+      <c r="F47" s="7">
+        <v>9.1300000000000008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6">
+        <v>3</v>
+      </c>
+      <c r="C48" s="6">
+        <v>3</v>
+      </c>
+      <c r="D48" s="6">
+        <f t="shared" ref="D48:D54" si="4">F$7/F48</f>
+        <v>3.1816239316239319</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" ref="E48:E54" si="5">D48/B48</f>
+        <v>1.0605413105413106</v>
+      </c>
+      <c r="F48" s="7">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>1</v>
+      </c>
+      <c r="B49" s="6">
+        <v>5</v>
+      </c>
+      <c r="C49" s="6">
+        <v>5</v>
+      </c>
+      <c r="D49" s="6">
+        <f t="shared" si="4"/>
+        <v>5.6832061068702293</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="5"/>
+        <v>1.1366412213740458</v>
+      </c>
+      <c r="F49" s="7">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>1</v>
+      </c>
+      <c r="B50" s="6">
+        <v>8</v>
+      </c>
+      <c r="C50" s="6">
+        <v>8</v>
+      </c>
+      <c r="D50" s="6">
+        <f t="shared" si="4"/>
+        <v>8.3651685393258433</v>
+      </c>
+      <c r="E50" s="6">
+        <f t="shared" si="5"/>
+        <v>1.0456460674157304</v>
+      </c>
+      <c r="F50" s="8">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>1</v>
+      </c>
+      <c r="B51" s="6">
+        <v>10</v>
+      </c>
+      <c r="C51" s="6">
+        <v>10</v>
+      </c>
+      <c r="D51" s="6">
+        <f t="shared" si="4"/>
+        <v>9.9266666666666676</v>
+      </c>
+      <c r="E51" s="6">
+        <f t="shared" si="5"/>
+        <v>0.99266666666666681</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2">
+        <v>16</v>
+      </c>
+      <c r="C52" s="2">
+        <v>16</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="4"/>
+        <v>11.02962962962963</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="5"/>
+        <v>0.68935185185185188</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>2</v>
+      </c>
+      <c r="B53" s="6">
+        <v>20</v>
+      </c>
+      <c r="C53" s="6">
+        <v>20</v>
+      </c>
+      <c r="D53" s="6">
+        <f t="shared" si="4"/>
+        <v>6.990610328638498</v>
+      </c>
+      <c r="E53" s="6">
+        <f t="shared" si="5"/>
+        <v>0.3495305164319249</v>
+      </c>
+      <c r="F53" s="7">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2">
+        <v>32</v>
+      </c>
+      <c r="C54" s="2">
+        <v>32</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="4"/>
+        <v>6.004032258064516</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="5"/>
+        <v>0.18762600806451613</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2.48</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A22:G22"/>
     <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A42:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pioantonioperugini/CLionProjects/MPIrecommendationsystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D50032-E8F2-004F-98D5-D42BA2290333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1CC617-326F-FF40-9744-A39EF91617A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>nodi</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>OPT3 -&gt; il master manda ai worker direttamente un oggetto correlazione invece che a,b.</t>
+  </si>
+  <si>
+    <t>OPT4 -&gt;invece di chiudere lo stream con valore sentinella calcoliamo il numero esatto di receive da fare lato worker</t>
   </si>
 </sst>
 </file>
@@ -2121,6 +2124,658 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="55844927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$64:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$64:$D$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6636871508379891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.222943722943723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.704980842911878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5574712643678161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.129251700680273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.724409448818898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1932367149758463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.004032258064516</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86B2-564F-9E6B-EB47D2BD1FAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="190618031"/>
+        <c:axId val="190141551"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="190618031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190141551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190141551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190618031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>effeciency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$64:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$64:$E$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83184357541899456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0743145743145743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1409961685823755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.069683908045977</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0129251700680273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73277559055118113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35966183574879229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18762600806451613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C393-2145-9491-13316E355A18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="230988192"/>
+        <c:axId val="230975312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="230988192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230975312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="230975312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230988192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2416,6 +3071,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4997,6 +5732,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5730,6 +7497,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Grafico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B271D85F-6FB6-DD1F-3213-70966ACF4C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Grafico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A34A11-CC60-A854-F50F-4597D7A6859A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6050,10 +7889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC550097-D982-EE4B-95F5-AEBD768E6E3D}">
-  <dimension ref="A5:H54"/>
+  <dimension ref="A5:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView tabSelected="1" topLeftCell="C38" workbookViewId="0">
+      <selection activeCell="X65" sqref="X65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6639,7 +8478,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>1</v>
       </c>
@@ -6661,7 +8500,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>1</v>
       </c>
@@ -6683,7 +8522,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>1</v>
       </c>
@@ -6705,7 +8544,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -6727,7 +8566,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>2</v>
       </c>
@@ -6749,7 +8588,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -6771,8 +8610,249 @@
         <v>2.48</v>
       </c>
     </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>1</v>
+      </c>
+      <c r="B64" s="6">
+        <v>1</v>
+      </c>
+      <c r="C64" s="6">
+        <v>1</v>
+      </c>
+      <c r="D64" s="6">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>1</v>
+      </c>
+      <c r="B65" s="6">
+        <v>2</v>
+      </c>
+      <c r="C65" s="6">
+        <v>2</v>
+      </c>
+      <c r="D65" s="6">
+        <f>F$7/F65</f>
+        <v>1.6636871508379891</v>
+      </c>
+      <c r="E65" s="6">
+        <f>D65/B65</f>
+        <v>0.83184357541899456</v>
+      </c>
+      <c r="F65" s="7">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>1</v>
+      </c>
+      <c r="B66" s="6">
+        <v>3</v>
+      </c>
+      <c r="C66" s="6">
+        <v>3</v>
+      </c>
+      <c r="D66" s="6">
+        <f t="shared" ref="D66:D72" si="6">F$7/F66</f>
+        <v>3.222943722943723</v>
+      </c>
+      <c r="E66" s="6">
+        <f t="shared" ref="E66:E72" si="7">D66/B66</f>
+        <v>1.0743145743145743</v>
+      </c>
+      <c r="F66" s="7">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>1</v>
+      </c>
+      <c r="B67" s="6">
+        <v>5</v>
+      </c>
+      <c r="C67" s="6">
+        <v>5</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" si="6"/>
+        <v>5.704980842911878</v>
+      </c>
+      <c r="E67" s="6">
+        <f t="shared" si="7"/>
+        <v>1.1409961685823755</v>
+      </c>
+      <c r="F67" s="7">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>1</v>
+      </c>
+      <c r="B68" s="6">
+        <v>8</v>
+      </c>
+      <c r="C68" s="6">
+        <v>8</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" si="6"/>
+        <v>8.5574712643678161</v>
+      </c>
+      <c r="E68" s="6">
+        <f t="shared" si="7"/>
+        <v>1.069683908045977</v>
+      </c>
+      <c r="F68" s="8">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>1</v>
+      </c>
+      <c r="B69" s="6">
+        <v>10</v>
+      </c>
+      <c r="C69" s="6">
+        <v>10</v>
+      </c>
+      <c r="D69" s="6">
+        <f t="shared" si="6"/>
+        <v>10.129251700680273</v>
+      </c>
+      <c r="E69" s="6">
+        <f t="shared" si="7"/>
+        <v>1.0129251700680273</v>
+      </c>
+      <c r="F69" s="7">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2">
+        <v>16</v>
+      </c>
+      <c r="C70" s="2">
+        <v>16</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="6"/>
+        <v>11.724409448818898</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="7"/>
+        <v>0.73277559055118113</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>2</v>
+      </c>
+      <c r="B71" s="6">
+        <v>20</v>
+      </c>
+      <c r="C71" s="6">
+        <v>20</v>
+      </c>
+      <c r="D71" s="6">
+        <f t="shared" si="6"/>
+        <v>7.1932367149758463</v>
+      </c>
+      <c r="E71" s="6">
+        <f t="shared" si="7"/>
+        <v>0.35966183574879229</v>
+      </c>
+      <c r="F71" s="7">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2">
+        <v>32</v>
+      </c>
+      <c r="C72" s="2">
+        <v>32</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="6"/>
+        <v>6.004032258064516</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="7"/>
+        <v>0.18762600806451613</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2.48</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A60:I60"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A24:F24"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pioantonioperugini/CLionProjects/MPIrecommendationsystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1CC617-326F-FF40-9744-A39EF91617A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B14103-7F36-224D-AF52-4B6A89C71789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>nodi</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>OPT4 -&gt;invece di chiudere lo stream con valore sentinella calcoliamo il numero esatto di receive da fare lato worker</t>
+  </si>
+  <si>
+    <t>OPT5 -&gt;  niente valore sentinella nell'invio delle colonne di correlazione ed in piu a receive è asincrona perché non serve subito</t>
   </si>
 </sst>
 </file>
@@ -494,6 +497,332 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1072196000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>effeciency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$82:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$82:$E$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83557800224466894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0650929899856938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1542635658914731</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0635714285714286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99932885906040281</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7214147286821706</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37225000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18687248995983935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA93-D947-ABC7-7B659D875486}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="231420768"/>
+        <c:axId val="231422480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="231420768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="231422480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="231422480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="231420768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2831,7 +3160,373 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$82:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$82:$D$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6711560044893379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1952789699570814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7713178294573648</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5085714285714289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9932885906040276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.54263565891473</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9799196787148592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0F9-6245-9D9F-E5893AA2E120}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="459902528"/>
+        <c:axId val="459904240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="459902528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459904240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="459904240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459902528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3151,6 +3846,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3667,7 +4402,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4183,7 +4918,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4699,7 +5434,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5215,7 +5950,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5731,7 +6466,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6247,7 +6982,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6763,7 +7498,1039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7569,6 +9336,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F9052D-172C-C70C-2B0F-7707C9DB90E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E209863-55FA-EFE1-C1C4-2A29C2506BCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7889,10 +9728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC550097-D982-EE4B-95F5-AEBD768E6E3D}">
-  <dimension ref="A5:I72"/>
+  <dimension ref="A5:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" workbookViewId="0">
-      <selection activeCell="X65" sqref="X65"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="Q78" sqref="Q78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8673,7 +10512,7 @@
         <v>14.89</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>1</v>
       </c>
@@ -8695,7 +10534,7 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>1</v>
       </c>
@@ -8717,7 +10556,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>1</v>
       </c>
@@ -8739,7 +10578,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>1</v>
       </c>
@@ -8761,7 +10600,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>1</v>
       </c>
@@ -8783,7 +10622,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>1</v>
       </c>
@@ -8805,7 +10644,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>2</v>
       </c>
@@ -8827,7 +10666,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -8849,8 +10688,250 @@
         <v>2.48</v>
       </c>
     </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
+        <v>1</v>
+      </c>
+      <c r="B82" s="6">
+        <v>1</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82" s="6">
+        <v>0</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <v>1</v>
+      </c>
+      <c r="B83" s="6">
+        <v>2</v>
+      </c>
+      <c r="C83" s="6">
+        <v>2</v>
+      </c>
+      <c r="D83" s="6">
+        <f>F$7/F83</f>
+        <v>1.6711560044893379</v>
+      </c>
+      <c r="E83" s="6">
+        <f>D83/B83</f>
+        <v>0.83557800224466894</v>
+      </c>
+      <c r="F83" s="7">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <v>1</v>
+      </c>
+      <c r="B84" s="6">
+        <v>3</v>
+      </c>
+      <c r="C84" s="6">
+        <v>3</v>
+      </c>
+      <c r="D84" s="6">
+        <f>F$7/F84</f>
+        <v>3.1952789699570814</v>
+      </c>
+      <c r="E84" s="6">
+        <f t="shared" ref="E84:E90" si="8">D84/B84</f>
+        <v>1.0650929899856938</v>
+      </c>
+      <c r="F84" s="7">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
+        <v>1</v>
+      </c>
+      <c r="B85" s="6">
+        <v>5</v>
+      </c>
+      <c r="C85" s="6">
+        <v>5</v>
+      </c>
+      <c r="D85" s="6">
+        <f t="shared" ref="D85:D90" si="9">F$7/F85</f>
+        <v>5.7713178294573648</v>
+      </c>
+      <c r="E85" s="6">
+        <f t="shared" si="8"/>
+        <v>1.1542635658914731</v>
+      </c>
+      <c r="F85" s="7">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <v>1</v>
+      </c>
+      <c r="B86" s="6">
+        <v>8</v>
+      </c>
+      <c r="C86" s="6">
+        <v>8</v>
+      </c>
+      <c r="D86" s="6">
+        <f t="shared" si="9"/>
+        <v>8.5085714285714289</v>
+      </c>
+      <c r="E86" s="6">
+        <f t="shared" si="8"/>
+        <v>1.0635714285714286</v>
+      </c>
+      <c r="F86" s="8">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
+        <v>1</v>
+      </c>
+      <c r="B87" s="6">
+        <v>10</v>
+      </c>
+      <c r="C87" s="6">
+        <v>10</v>
+      </c>
+      <c r="D87" s="6">
+        <f t="shared" si="9"/>
+        <v>9.9932885906040276</v>
+      </c>
+      <c r="E87" s="6">
+        <f t="shared" si="8"/>
+        <v>0.99932885906040281</v>
+      </c>
+      <c r="F87" s="7">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2">
+        <v>16</v>
+      </c>
+      <c r="C88" s="2">
+        <v>16</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="9"/>
+        <v>11.54263565891473</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="8"/>
+        <v>0.7214147286821706</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
+        <v>2</v>
+      </c>
+      <c r="B89" s="6">
+        <v>20</v>
+      </c>
+      <c r="C89" s="6">
+        <v>20</v>
+      </c>
+      <c r="D89" s="6">
+        <f t="shared" si="9"/>
+        <v>7.4450000000000003</v>
+      </c>
+      <c r="E89" s="6">
+        <f t="shared" si="8"/>
+        <v>0.37225000000000003</v>
+      </c>
+      <c r="F89" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>2</v>
+      </c>
+      <c r="B90" s="2">
+        <v>32</v>
+      </c>
+      <c r="C90" s="2">
+        <v>32</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="9"/>
+        <v>5.9799196787148592</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="8"/>
+        <v>0.18687248995983935</v>
+      </c>
+      <c r="F90" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A78:J78"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A60:I60"/>
     <mergeCell ref="A44:F44"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pioantonioperugini/CLionProjects/MPIrecommendationsystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B14103-7F36-224D-AF52-4B6A89C71789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C3505F-C279-7946-B0B9-7BAFD59F9C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
   <si>
     <t>nodi</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>OPT5 -&gt;  niente valore sentinella nell'invio delle colonne di correlazione ed in piu a receive è asincrona perché non serve subito</t>
+  </si>
+  <si>
+    <t>OPT6 -&gt; send asincrone</t>
   </si>
 </sst>
 </file>
@@ -878,6 +881,658 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$D$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$98:$C$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$98:$D$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6711560044893379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2090517241379315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7937743190661486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7076023391812871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.129251700680273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.453846153846154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8368421052631589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2041666666666675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-059F-864F-AFA5-502EEF0F743F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="459807328"/>
+        <c:axId val="460156320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="459807328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460156320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="460156320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459807328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>effeciency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$98:$C$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$98:$E$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83557800224466894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0696839080459772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1587548638132297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0884502923976609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0129251700680273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71586538461538463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39184210526315794</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19388020833333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9B4-0141-857A-2058F992FFE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1384909951"/>
+        <c:axId val="50948831"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1384909951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50948831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50948831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1384909951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3527,6 +4182,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4403,6 +5138,1038 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9408,6 +11175,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Grafico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2031378E-5BB5-A15E-20C1-9A9D3010357E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Grafico 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B6AFD2-1954-FF22-1CC5-E91BD0D757E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9728,10 +11567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC550097-D982-EE4B-95F5-AEBD768E6E3D}">
-  <dimension ref="A5:J90"/>
+  <dimension ref="A5:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="Q78" sqref="Q78"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10928,18 +12767,256 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
+        <v>1</v>
+      </c>
+      <c r="B98" s="6">
+        <v>1</v>
+      </c>
+      <c r="C98" s="6">
+        <v>1</v>
+      </c>
+      <c r="D98" s="6">
+        <v>0</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0</v>
+      </c>
+      <c r="F98" s="7">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
+        <v>1</v>
+      </c>
+      <c r="B99" s="6">
+        <v>2</v>
+      </c>
+      <c r="C99" s="6">
+        <v>2</v>
+      </c>
+      <c r="D99" s="6">
+        <f>F$7/F99</f>
+        <v>1.6711560044893379</v>
+      </c>
+      <c r="E99" s="6">
+        <f>D99/B99</f>
+        <v>0.83557800224466894</v>
+      </c>
+      <c r="F99" s="7">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
+        <v>1</v>
+      </c>
+      <c r="B100" s="6">
+        <v>3</v>
+      </c>
+      <c r="C100" s="6">
+        <v>3</v>
+      </c>
+      <c r="D100" s="6">
+        <f>F$7/F100</f>
+        <v>3.2090517241379315</v>
+      </c>
+      <c r="E100" s="6">
+        <f t="shared" ref="E100:E106" si="10">D100/B100</f>
+        <v>1.0696839080459772</v>
+      </c>
+      <c r="F100" s="7">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
+        <v>1</v>
+      </c>
+      <c r="B101" s="6">
+        <v>5</v>
+      </c>
+      <c r="C101" s="6">
+        <v>5</v>
+      </c>
+      <c r="D101" s="6">
+        <f t="shared" ref="D101:D106" si="11">F$7/F101</f>
+        <v>5.7937743190661486</v>
+      </c>
+      <c r="E101" s="6">
+        <f t="shared" si="10"/>
+        <v>1.1587548638132297</v>
+      </c>
+      <c r="F101" s="7">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
+        <v>1</v>
+      </c>
+      <c r="B102" s="6">
+        <v>8</v>
+      </c>
+      <c r="C102" s="6">
+        <v>8</v>
+      </c>
+      <c r="D102" s="6">
+        <f t="shared" si="11"/>
+        <v>8.7076023391812871</v>
+      </c>
+      <c r="E102" s="6">
+        <f t="shared" si="10"/>
+        <v>1.0884502923976609</v>
+      </c>
+      <c r="F102" s="8">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
+        <v>1</v>
+      </c>
+      <c r="B103" s="6">
+        <v>10</v>
+      </c>
+      <c r="C103" s="6">
+        <v>10</v>
+      </c>
+      <c r="D103" s="6">
+        <f t="shared" si="11"/>
+        <v>10.129251700680273</v>
+      </c>
+      <c r="E103" s="6">
+        <f t="shared" si="10"/>
+        <v>1.0129251700680273</v>
+      </c>
+      <c r="F103" s="7">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>1</v>
+      </c>
+      <c r="B104" s="2">
+        <v>16</v>
+      </c>
+      <c r="C104" s="2">
+        <v>16</v>
+      </c>
+      <c r="D104" s="2">
+        <f t="shared" si="11"/>
+        <v>11.453846153846154</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="10"/>
+        <v>0.71586538461538463</v>
+      </c>
+      <c r="F104" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
+        <v>2</v>
+      </c>
+      <c r="B105" s="6">
+        <v>20</v>
+      </c>
+      <c r="C105" s="6">
+        <v>20</v>
+      </c>
+      <c r="D105" s="6">
+        <f t="shared" si="11"/>
+        <v>7.8368421052631589</v>
+      </c>
+      <c r="E105" s="6">
+        <f t="shared" si="10"/>
+        <v>0.39184210526315794</v>
+      </c>
+      <c r="F105" s="7">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>2</v>
+      </c>
+      <c r="B106" s="2">
+        <v>32</v>
+      </c>
+      <c r="C106" s="2">
+        <v>32</v>
+      </c>
+      <c r="D106" s="2">
+        <f t="shared" si="11"/>
+        <v>6.2041666666666675</v>
+      </c>
+      <c r="E106" s="2">
+        <f t="shared" si="10"/>
+        <v>0.19388020833333336</v>
+      </c>
+      <c r="F106" s="3">
+        <v>2.4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A42:H42"/>
     <mergeCell ref="A80:F80"/>
     <mergeCell ref="A78:J78"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A60:I60"/>
     <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A42:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pioantonioperugini/CLionProjects/MPIrecommendationsystem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ermannonicoletti/CLionProjects/recommendationSystemMPI_CPAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C3505F-C279-7946-B0B9-7BAFD59F9C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F0B609-9FCD-2C4A-BF4A-ADFD6E27DC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>nodi</t>
   </si>
@@ -59,25 +59,37 @@
     <t>Situazione di partenza</t>
   </si>
   <si>
-    <t>Opt1</t>
+    <t>IMPORV2 -&gt; tutti inizializzano i propri dati per cercare di evitare le broadcast dato che dopo i 16 processi le prestazioni per via della rete peggiorano, ma le cose andavano peggio</t>
   </si>
   <si>
-    <t>OPT2 -&gt; tutti inizializzano insieme senza che il master inizializzi e poi faccia la broadcast -&gt; tutto piu lento</t>
+    <t xml:space="preserve">IMPROV3 -&gt; calcoliamo la correlazione man mano che riceve cosi impiega il tempo morto </t>
   </si>
   <si>
-    <t>OPT1 -&gt; i worker mandano al master un oggetto correlation incece che a,b,correlation</t>
+    <t>Opt2</t>
   </si>
   <si>
-    <t>OPT3 -&gt; il master manda ai worker direttamente un oggetto correlazione invece che a,b.</t>
+    <t>Opt3</t>
   </si>
   <si>
-    <t>OPT4 -&gt;invece di chiudere lo stream con valore sentinella calcoliamo il numero esatto di receive da fare lato worker</t>
+    <t>IMPROV 1 -&gt; MPI_DATA_TYPE per ridurre le send dei worker verso il master</t>
   </si>
   <si>
-    <t>OPT5 -&gt;  niente valore sentinella nell'invio delle colonne di correlazione ed in piu a receive è asincrona perché non serve subito</t>
+    <t>IMPROV4 -&gt; riduciamo le send da master verso i worker usando un mpi_data_type</t>
   </si>
   <si>
-    <t>OPT6 -&gt; send asincrone</t>
+    <t>Opt4</t>
+  </si>
+  <si>
+    <t>Opt5</t>
+  </si>
+  <si>
+    <t>IMPROV5 -&gt; Rimozione valore sentinella -1. Un messaggio in meno per ogni worker, ma server per l'implementazione successiva</t>
+  </si>
+  <si>
+    <t>Opt6</t>
+  </si>
+  <si>
+    <t>IMPROV6 -&gt; Send Async sia lato Master che lato Worker</t>
   </si>
 </sst>
 </file>
@@ -500,984 +512,6 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1072196000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$E$81</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>effeciency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$C$82:$C$90</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$E$82:$E$90</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.83557800224466894</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0650929899856938</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1542635658914731</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0635714285714286</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99932885906040281</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7214147286821706</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.37225000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.18687248995983935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA93-D947-ABC7-7B659D875486}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="231420768"/>
-        <c:axId val="231422480"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="231420768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="231422480"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="231422480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="231420768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$D$97</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>speedup</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$C$98:$C$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$D$98:$D$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6711560044893379</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2090517241379315</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.7937743190661486</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.7076023391812871</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.129251700680273</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.453846153846154</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.8368421052631589</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.2041666666666675</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-059F-864F-AFA5-502EEF0F743F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="459807328"/>
-        <c:axId val="460156320"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="459807328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="460156320"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="460156320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="459807328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$E$97</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>effeciency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$C$98:$C$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$E$98:$E$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.83557800224466894</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0696839080459772</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1587548638132297</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0884502923976609</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0129251700680273</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71586538461538463</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.39184210526315794</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19388020833333336</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B9B4-0141-857A-2058F992FFE8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1384909951"/>
-        <c:axId val="50948831"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1384909951"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="50948831"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50948831"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1384909951"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2633,28 +1667,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6308871851040525</c:v>
+                  <c:v>1.5271794871794873</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1816239316239319</c:v>
+                  <c:v>2.9138943248532287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6832061068702293</c:v>
+                  <c:v>5.2989323843416374</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3651685393258433</c:v>
+                  <c:v>7.2281553398058254</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9266666666666676</c:v>
+                  <c:v>7.7150259067357521</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.02962962962963</c:v>
+                  <c:v>8.7588235294117656</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.990610328638498</c:v>
+                  <c:v>6.3632478632478637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.004032258064516</c:v>
+                  <c:v>4.609907120743034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2662,7 +1696,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-69F2-6743-AA20-A6704A6602AC}"/>
+              <c16:uniqueId val="{00000000-63DD-EE4D-80C3-FFAE7FC7BAEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2675,11 +1709,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="68407439"/>
-        <c:axId val="69116351"/>
+        <c:axId val="437653120"/>
+        <c:axId val="437654832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68407439"/>
+        <c:axId val="437653120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2722,7 +1756,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69116351"/>
+        <c:crossAx val="437654832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2730,7 +1764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69116351"/>
+        <c:axId val="437654832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2781,7 +1815,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68407439"/>
+        <c:crossAx val="437653120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2959,28 +1993,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81544359255202625</c:v>
+                  <c:v>0.76358974358974363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0605413105413106</c:v>
+                  <c:v>0.97129810828440954</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1366412213740458</c:v>
+                  <c:v>1.0597864768683274</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0456460674157304</c:v>
+                  <c:v>0.90351941747572817</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99266666666666681</c:v>
+                  <c:v>0.77150259067357518</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68935185185185188</c:v>
+                  <c:v>0.54742647058823535</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3495305164319249</c:v>
+                  <c:v>0.3181623931623932</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18762600806451613</c:v>
+                  <c:v>0.14405959752321981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2988,7 +2022,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-72CA-FC4C-8693-A944BD6EEBC5}"/>
+              <c16:uniqueId val="{00000000-3931-3747-BEF7-8C652932DB98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3001,11 +2035,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="55844927"/>
-        <c:axId val="56206223"/>
+        <c:axId val="212416832"/>
+        <c:axId val="212418560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55844927"/>
+        <c:axId val="212416832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3048,7 +2082,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56206223"/>
+        <c:crossAx val="212418560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3056,7 +2090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56206223"/>
+        <c:axId val="212418560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3107,985 +2141,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55844927"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$D$63</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>speedup</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$C$64:$C$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$D$64:$D$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6636871508379891</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.222943722943723</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.704980842911878</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.5574712643678161</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.129251700680273</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.724409448818898</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.1932367149758463</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.004032258064516</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-86B2-564F-9E6B-EB47D2BD1FAD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="190618031"/>
-        <c:axId val="190141551"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="190618031"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="190141551"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="190141551"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="190618031"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$E$63</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>effeciency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$C$64:$C$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$E$64:$E$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.83184357541899456</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0743145743145743</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1409961685823755</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.069683908045977</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0129251700680273</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.73277559055118113</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.35966183574879229</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.18762600806451613</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C393-2145-9491-13316E355A18}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="230988192"/>
-        <c:axId val="230975312"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="230988192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="230975312"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="230975312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="230988192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$D$81</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>speedup</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$C$82:$C$90</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$D$82:$D$90</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6711560044893379</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1952789699570814</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.7713178294573648</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.5085714285714289</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.9932885906040276</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.54263565891473</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.4450000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.9799196787148592</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A0F9-6245-9D9F-E5893AA2E120}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="459902528"/>
-        <c:axId val="459904240"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="459902528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="459904240"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="459904240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="459902528"/>
+        <c:crossAx val="212416832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4142,126 +2198,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4501,126 +2437,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5137,7 +2953,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5653,7 +3469,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6169,7 +3985,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6685,7 +4501,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7201,3103 +5017,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10962,22 +5682,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Grafico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084829B5-1F50-E95B-117C-6D339445D931}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADFE63EA-D333-BD26-C817-A7B1DFFBD90B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10998,22 +5718,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Grafico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB876FB-1CEE-1C2C-C0E9-392D78CF8447}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A86D06-0626-D029-1AFD-E99CE0552316}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11026,222 +5746,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Grafico 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B271D85F-6FB6-DD1F-3213-70966ACF4C12}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Grafico 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A34A11-CC60-A854-F50F-4597D7A6859A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Grafico 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F9052D-172C-C70C-2B0F-7707C9DB90E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Grafico 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E209863-55FA-EFE1-C1C4-2A29C2506BCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Grafico 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2031378E-5BB5-A15E-20C1-9A9D3010357E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Grafico 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B6AFD2-1954-FF22-1CC5-E91BD0D757E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11567,10 +6071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC550097-D982-EE4B-95F5-AEBD768E6E3D}">
-  <dimension ref="A5:J106"/>
+  <dimension ref="A5:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11801,20 +6305,17 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -11822,7 +6323,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>0</v>
       </c>
@@ -11842,7 +6343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -11862,7 +6363,7 @@
         <v>14.89</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>1</v>
       </c>
@@ -11884,7 +6385,7 @@
         <v>9.17</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>1</v>
       </c>
@@ -11906,7 +6407,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -11928,7 +6429,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>1</v>
       </c>
@@ -11950,7 +6451,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -11972,7 +6473,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -11994,7 +6495,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>2</v>
       </c>
@@ -12016,7 +6517,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -12038,9 +6539,9 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -12049,22 +6550,20 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -12072,7 +6571,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>0</v>
       </c>
@@ -12092,7 +6591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>1</v>
       </c>
@@ -12112,7 +6611,7 @@
         <v>14.89</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>1</v>
       </c>
@@ -12124,17 +6623,17 @@
       </c>
       <c r="D47" s="6">
         <f>F$7/F47</f>
-        <v>1.6308871851040525</v>
+        <v>1.5271794871794873</v>
       </c>
       <c r="E47" s="6">
         <f>D47/B47</f>
-        <v>0.81544359255202625</v>
+        <v>0.76358974358974363</v>
       </c>
       <c r="F47" s="7">
-        <v>9.1300000000000008</v>
+        <v>9.75</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>1</v>
       </c>
@@ -12146,17 +6645,17 @@
       </c>
       <c r="D48" s="6">
         <f t="shared" ref="D48:D54" si="4">F$7/F48</f>
-        <v>3.1816239316239319</v>
+        <v>2.9138943248532287</v>
       </c>
       <c r="E48" s="6">
         <f t="shared" ref="E48:E54" si="5">D48/B48</f>
-        <v>1.0605413105413106</v>
+        <v>0.97129810828440954</v>
       </c>
       <c r="F48" s="7">
-        <v>4.68</v>
+        <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>1</v>
       </c>
@@ -12168,17 +6667,17 @@
       </c>
       <c r="D49" s="6">
         <f t="shared" si="4"/>
-        <v>5.6832061068702293</v>
+        <v>5.2989323843416374</v>
       </c>
       <c r="E49" s="6">
         <f t="shared" si="5"/>
-        <v>1.1366412213740458</v>
+        <v>1.0597864768683274</v>
       </c>
       <c r="F49" s="7">
-        <v>2.62</v>
+        <v>2.81</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>1</v>
       </c>
@@ -12190,17 +6689,17 @@
       </c>
       <c r="D50" s="6">
         <f t="shared" si="4"/>
-        <v>8.3651685393258433</v>
+        <v>7.2281553398058254</v>
       </c>
       <c r="E50" s="6">
         <f t="shared" si="5"/>
-        <v>1.0456460674157304</v>
+        <v>0.90351941747572817</v>
       </c>
       <c r="F50" s="8">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>1</v>
       </c>
@@ -12212,17 +6711,17 @@
       </c>
       <c r="D51" s="6">
         <f t="shared" si="4"/>
-        <v>9.9266666666666676</v>
+        <v>7.7150259067357521</v>
       </c>
       <c r="E51" s="6">
         <f t="shared" si="5"/>
-        <v>0.99266666666666681</v>
+        <v>0.77150259067357518</v>
       </c>
       <c r="F51" s="7">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -12234,17 +6733,17 @@
       </c>
       <c r="D52" s="2">
         <f t="shared" si="4"/>
-        <v>11.02962962962963</v>
+        <v>8.7588235294117656</v>
       </c>
       <c r="E52" s="2">
         <f t="shared" si="5"/>
-        <v>0.68935185185185188</v>
+        <v>0.54742647058823535</v>
       </c>
       <c r="F52" s="3">
-        <v>1.35</v>
+        <v>1.7</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>2</v>
       </c>
@@ -12256,17 +6755,17 @@
       </c>
       <c r="D53" s="6">
         <f t="shared" si="4"/>
-        <v>6.990610328638498</v>
+        <v>6.3632478632478637</v>
       </c>
       <c r="E53" s="6">
         <f t="shared" si="5"/>
-        <v>0.3495305164319249</v>
+        <v>0.3181623931623932</v>
       </c>
       <c r="F53" s="7">
-        <v>2.13</v>
+        <v>2.34</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -12278,361 +6777,280 @@
       </c>
       <c r="D54" s="2">
         <f t="shared" si="4"/>
-        <v>6.004032258064516</v>
+        <v>4.609907120743034</v>
       </c>
       <c r="E54" s="2">
         <f t="shared" si="5"/>
-        <v>0.18762600806451613</v>
+        <v>0.14405959752321981</v>
       </c>
       <c r="F54" s="3">
-        <v>2.48</v>
+        <v>3.23</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
-        <v>1</v>
-      </c>
-      <c r="B64" s="6">
-        <v>1</v>
-      </c>
-      <c r="C64" s="6">
-        <v>1</v>
-      </c>
-      <c r="D64" s="6">
-        <v>0</v>
-      </c>
-      <c r="E64" s="6">
-        <v>0</v>
-      </c>
-      <c r="F64" s="7">
-        <v>14.89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>1</v>
       </c>
       <c r="B65" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" s="6">
-        <f>F$7/F65</f>
-        <v>1.6636871508379891</v>
+        <v>0</v>
       </c>
       <c r="E65" s="6">
-        <f>D65/B65</f>
-        <v>0.83184357541899456</v>
+        <v>0</v>
       </c>
       <c r="F65" s="7">
-        <v>8.9499999999999993</v>
+        <v>14.89</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>1</v>
       </c>
       <c r="B66" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" ref="D66:D72" si="6">F$7/F66</f>
-        <v>3.222943722943723</v>
+        <f>F$7/F66</f>
+        <v>1.5925133689839572</v>
       </c>
       <c r="E66" s="6">
-        <f t="shared" ref="E66:E72" si="7">D66/B66</f>
-        <v>1.0743145743145743</v>
+        <f>D66/B66</f>
+        <v>0.79625668449197862</v>
       </c>
       <c r="F66" s="7">
-        <v>4.62</v>
+        <v>9.35</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>1</v>
       </c>
       <c r="B67" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C67" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" si="6"/>
-        <v>5.704980842911878</v>
+        <f t="shared" ref="D67:D73" si="6">F$7/F67</f>
+        <v>3.1150627615062763</v>
       </c>
       <c r="E67" s="6">
-        <f t="shared" si="7"/>
-        <v>1.1409961685823755</v>
+        <f t="shared" ref="E67:E73" si="7">D67/B67</f>
+        <v>1.0383542538354253</v>
       </c>
       <c r="F67" s="7">
-        <v>2.61</v>
+        <v>4.78</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>1</v>
       </c>
       <c r="B68" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D68" s="6">
         <f t="shared" si="6"/>
-        <v>8.5574712643678161</v>
+        <v>5.5148148148148151</v>
       </c>
       <c r="E68" s="6">
         <f t="shared" si="7"/>
-        <v>1.069683908045977</v>
-      </c>
-      <c r="F68" s="8">
-        <v>1.74</v>
+        <v>1.1029629629629629</v>
+      </c>
+      <c r="F68" s="7">
+        <v>2.7</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>1</v>
       </c>
       <c r="B69" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C69" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D69" s="6">
         <f t="shared" si="6"/>
-        <v>10.129251700680273</v>
+        <v>8.5574712643678161</v>
       </c>
       <c r="E69" s="6">
         <f t="shared" si="7"/>
-        <v>1.0129251700680273</v>
-      </c>
-      <c r="F69" s="7">
-        <v>1.47</v>
+        <v>1.069683908045977</v>
+      </c>
+      <c r="F69" s="8">
+        <v>1.74</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
         <v>1</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="6">
+        <v>10</v>
+      </c>
+      <c r="C70" s="6">
+        <v>10</v>
+      </c>
+      <c r="D70" s="6">
+        <f t="shared" si="6"/>
+        <v>9.6064516129032267</v>
+      </c>
+      <c r="E70" s="6">
+        <f t="shared" si="7"/>
+        <v>0.96064516129032262</v>
+      </c>
+      <c r="F70" s="7">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2">
         <v>16</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C71" s="2">
         <v>16</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D71" s="2">
         <f t="shared" si="6"/>
-        <v>11.724409448818898</v>
-      </c>
-      <c r="E70" s="2">
+        <v>10.71223021582734</v>
+      </c>
+      <c r="E71" s="2">
         <f t="shared" si="7"/>
-        <v>0.73277559055118113</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1.27</v>
+        <v>0.66951438848920874</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1.39</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
         <v>2</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B72" s="6">
         <v>20</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C72" s="6">
         <v>20</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D72" s="6">
         <f t="shared" si="6"/>
-        <v>7.1932367149758463</v>
-      </c>
-      <c r="E71" s="6">
+        <v>8.8106508875739653</v>
+      </c>
+      <c r="E72" s="6">
         <f t="shared" si="7"/>
-        <v>0.35966183574879229</v>
-      </c>
-      <c r="F71" s="7">
-        <v>2.0699999999999998</v>
+        <v>0.44053254437869827</v>
+      </c>
+      <c r="F72" s="7">
+        <v>1.69</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>2</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B73" s="2">
         <v>32</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C73" s="2">
         <v>32</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D73" s="2">
         <f t="shared" si="6"/>
-        <v>6.004032258064516</v>
-      </c>
-      <c r="E72" s="2">
+        <v>6.9579439252336446</v>
+      </c>
+      <c r="E73" s="2">
         <f t="shared" si="7"/>
-        <v>0.18762600806451613</v>
-      </c>
-      <c r="F72" s="3">
-        <v>2.48</v>
+        <v>0.21743574766355139</v>
+      </c>
+      <c r="F73" s="3">
+        <v>2.14</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
-        <v>1</v>
-      </c>
-      <c r="B82" s="6">
-        <v>1</v>
-      </c>
-      <c r="C82" s="6">
-        <v>1</v>
-      </c>
-      <c r="D82" s="6">
-        <v>0</v>
-      </c>
-      <c r="E82" s="6">
-        <v>0</v>
-      </c>
-      <c r="F82" s="7">
-        <v>14.89</v>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
-        <v>1</v>
-      </c>
-      <c r="B83" s="6">
-        <v>2</v>
-      </c>
-      <c r="C83" s="6">
-        <v>2</v>
-      </c>
-      <c r="D83" s="6">
-        <f>F$7/F83</f>
-        <v>1.6711560044893379</v>
-      </c>
-      <c r="E83" s="6">
-        <f>D83/B83</f>
-        <v>0.83557800224466894</v>
-      </c>
-      <c r="F83" s="7">
-        <v>8.91</v>
-      </c>
+      <c r="A83" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+      <c r="A84" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="6">
+      <c r="C84" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="6">
-        <v>3</v>
-      </c>
-      <c r="D84" s="6">
-        <f>F$7/F84</f>
-        <v>3.1952789699570814</v>
-      </c>
-      <c r="E84" s="6">
-        <f t="shared" ref="E84:E90" si="8">D84/B84</f>
-        <v>1.0650929899856938</v>
-      </c>
-      <c r="F84" s="7">
-        <v>4.66</v>
+      <c r="F84" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -12640,21 +7058,19 @@
         <v>1</v>
       </c>
       <c r="B85" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C85" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" ref="D85:D90" si="9">F$7/F85</f>
-        <v>5.7713178294573648</v>
+        <v>0</v>
       </c>
       <c r="E85" s="6">
-        <f t="shared" si="8"/>
-        <v>1.1542635658914731</v>
+        <v>0</v>
       </c>
       <c r="F85" s="7">
-        <v>2.58</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -12662,21 +7078,21 @@
         <v>1</v>
       </c>
       <c r="B86" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C86" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="9"/>
-        <v>8.5085714285714289</v>
+        <f>F$7/F86</f>
+        <v>1.6398678414096917</v>
       </c>
       <c r="E86" s="6">
-        <f t="shared" si="8"/>
-        <v>1.0635714285714286</v>
-      </c>
-      <c r="F86" s="8">
-        <v>1.75</v>
+        <f>D86/B86</f>
+        <v>0.81993392070484583</v>
+      </c>
+      <c r="F86" s="7">
+        <v>9.08</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -12684,338 +7100,395 @@
         <v>1</v>
       </c>
       <c r="B87" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C87" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="9"/>
-        <v>9.9932885906040276</v>
+        <f t="shared" ref="D87:D93" si="8">F$7/F87</f>
+        <v>3.0701030927835053</v>
       </c>
       <c r="E87" s="6">
-        <f t="shared" si="8"/>
-        <v>0.99932885906040281</v>
+        <f t="shared" ref="E87:E93" si="9">D87/B87</f>
+        <v>1.0233676975945019</v>
       </c>
       <c r="F87" s="7">
-        <v>1.49</v>
+        <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="A88" s="5">
         <v>1</v>
       </c>
-      <c r="B88" s="2">
-        <v>16</v>
-      </c>
-      <c r="C88" s="2">
-        <v>16</v>
-      </c>
-      <c r="D88" s="2">
+      <c r="B88" s="6">
+        <v>5</v>
+      </c>
+      <c r="C88" s="6">
+        <v>5</v>
+      </c>
+      <c r="D88" s="6">
+        <f t="shared" si="8"/>
+        <v>5.5353159851301115</v>
+      </c>
+      <c r="E88" s="6">
         <f t="shared" si="9"/>
-        <v>11.54263565891473</v>
-      </c>
-      <c r="E88" s="2">
-        <f t="shared" si="8"/>
-        <v>0.7214147286821706</v>
-      </c>
-      <c r="F88" s="3">
-        <v>1.29</v>
+        <v>1.1070631970260223</v>
+      </c>
+      <c r="F88" s="7">
+        <v>2.69</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89" s="6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C89" s="6">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D89" s="6">
+        <f t="shared" si="8"/>
+        <v>8.5085714285714289</v>
+      </c>
+      <c r="E89" s="6">
         <f t="shared" si="9"/>
-        <v>7.4450000000000003</v>
-      </c>
-      <c r="E89" s="6">
-        <f t="shared" si="8"/>
-        <v>0.37225000000000003</v>
-      </c>
-      <c r="F89" s="7">
-        <v>2</v>
+        <v>1.0635714285714286</v>
+      </c>
+      <c r="F89" s="8">
+        <v>1.75</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="A90" s="5">
+        <v>1</v>
+      </c>
+      <c r="B90" s="6">
+        <v>10</v>
+      </c>
+      <c r="C90" s="6">
+        <v>10</v>
+      </c>
+      <c r="D90" s="6">
+        <f t="shared" si="8"/>
+        <v>9.7960526315789469</v>
+      </c>
+      <c r="E90" s="6">
+        <f t="shared" si="9"/>
+        <v>0.97960526315789465</v>
+      </c>
+      <c r="F90" s="7">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>1</v>
+      </c>
+      <c r="B91" s="2">
+        <v>16</v>
+      </c>
+      <c r="C91" s="2">
+        <v>16</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="8"/>
+        <v>10.71223021582734</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="9"/>
+        <v>0.66951438848920874</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
         <v>2</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B92" s="6">
+        <v>20</v>
+      </c>
+      <c r="C92" s="6">
+        <v>20</v>
+      </c>
+      <c r="D92" s="6">
+        <f t="shared" si="8"/>
+        <v>8.9698795180722897</v>
+      </c>
+      <c r="E92" s="6">
+        <f t="shared" si="9"/>
+        <v>0.44849397590361451</v>
+      </c>
+      <c r="F92" s="7">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>2</v>
+      </c>
+      <c r="B93" s="2">
         <v>32</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C93" s="2">
         <v>32</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D93" s="2">
+        <f t="shared" si="8"/>
+        <v>7.1586538461538458</v>
+      </c>
+      <c r="E93" s="2">
         <f t="shared" si="9"/>
-        <v>5.9799196787148592</v>
-      </c>
-      <c r="E90" s="2">
-        <f t="shared" si="8"/>
-        <v>0.18687248995983935</v>
-      </c>
-      <c r="F90" s="3">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
-        <v>1</v>
-      </c>
-      <c r="B98" s="6">
-        <v>1</v>
-      </c>
-      <c r="C98" s="6">
-        <v>1</v>
-      </c>
-      <c r="D98" s="6">
-        <v>0</v>
-      </c>
-      <c r="E98" s="6">
-        <v>0</v>
-      </c>
-      <c r="F98" s="7">
-        <v>14.89</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
-        <v>1</v>
-      </c>
-      <c r="B99" s="6">
-        <v>2</v>
-      </c>
-      <c r="C99" s="6">
-        <v>2</v>
-      </c>
-      <c r="D99" s="6">
-        <f>F$7/F99</f>
-        <v>1.6711560044893379</v>
-      </c>
-      <c r="E99" s="6">
-        <f>D99/B99</f>
-        <v>0.83557800224466894</v>
-      </c>
-      <c r="F99" s="7">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
-        <v>1</v>
-      </c>
-      <c r="B100" s="6">
-        <v>3</v>
-      </c>
-      <c r="C100" s="6">
-        <v>3</v>
-      </c>
-      <c r="D100" s="6">
-        <f>F$7/F100</f>
-        <v>3.2090517241379315</v>
-      </c>
-      <c r="E100" s="6">
-        <f t="shared" ref="E100:E106" si="10">D100/B100</f>
-        <v>1.0696839080459772</v>
-      </c>
-      <c r="F100" s="7">
-        <v>4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="5">
-        <v>1</v>
-      </c>
-      <c r="B101" s="6">
-        <v>5</v>
-      </c>
-      <c r="C101" s="6">
-        <v>5</v>
-      </c>
-      <c r="D101" s="6">
-        <f t="shared" ref="D101:D106" si="11">F$7/F101</f>
-        <v>5.7937743190661486</v>
-      </c>
-      <c r="E101" s="6">
-        <f t="shared" si="10"/>
-        <v>1.1587548638132297</v>
-      </c>
-      <c r="F101" s="7">
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="5">
-        <v>1</v>
-      </c>
-      <c r="B102" s="6">
-        <v>8</v>
-      </c>
-      <c r="C102" s="6">
-        <v>8</v>
-      </c>
-      <c r="D102" s="6">
-        <f t="shared" si="11"/>
-        <v>8.7076023391812871</v>
-      </c>
-      <c r="E102" s="6">
-        <f t="shared" si="10"/>
-        <v>1.0884502923976609</v>
-      </c>
-      <c r="F102" s="8">
-        <v>1.71</v>
+        <v>0.22370793269230768</v>
+      </c>
+      <c r="F93" s="3">
+        <v>2.08</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="5">
+      <c r="A103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="6">
+      <c r="C109" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
+        <v>1</v>
+      </c>
+      <c r="B110" s="6">
+        <v>1</v>
+      </c>
+      <c r="C110" s="6">
+        <v>1</v>
+      </c>
+      <c r="D110" s="6">
+        <v>0</v>
+      </c>
+      <c r="E110" s="6">
+        <v>0</v>
+      </c>
+      <c r="F110" s="7">
+        <v>14.89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <v>1</v>
+      </c>
+      <c r="B111" s="6">
+        <v>2</v>
+      </c>
+      <c r="C111" s="6">
+        <v>2</v>
+      </c>
+      <c r="D111" s="6">
+        <f>F$7/F111</f>
+        <v>1.6398678414096917</v>
+      </c>
+      <c r="E111" s="6">
+        <f>D111/B111</f>
+        <v>0.81993392070484583</v>
+      </c>
+      <c r="F111" s="7">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>1</v>
+      </c>
+      <c r="B112" s="6">
+        <v>3</v>
+      </c>
+      <c r="C112" s="6">
+        <v>3</v>
+      </c>
+      <c r="D112" s="6">
+        <f t="shared" ref="D112:D118" si="10">F$7/F112</f>
+        <v>3.0701030927835053</v>
+      </c>
+      <c r="E112" s="6">
+        <f t="shared" ref="E112:E118" si="11">D112/B112</f>
+        <v>1.0233676975945019</v>
+      </c>
+      <c r="F112" s="7">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
+        <v>1</v>
+      </c>
+      <c r="B113" s="6">
+        <v>5</v>
+      </c>
+      <c r="C113" s="6">
+        <v>5</v>
+      </c>
+      <c r="D113" s="6">
+        <f t="shared" si="10"/>
+        <v>5.5353159851301115</v>
+      </c>
+      <c r="E113" s="6">
+        <f t="shared" si="11"/>
+        <v>1.1070631970260223</v>
+      </c>
+      <c r="F113" s="7">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="5">
+        <v>1</v>
+      </c>
+      <c r="B114" s="6">
+        <v>8</v>
+      </c>
+      <c r="C114" s="6">
+        <v>8</v>
+      </c>
+      <c r="D114" s="6">
+        <f t="shared" si="10"/>
+        <v>8.5085714285714289</v>
+      </c>
+      <c r="E114" s="6">
+        <f t="shared" si="11"/>
+        <v>1.0635714285714286</v>
+      </c>
+      <c r="F114" s="8">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="5">
+        <v>1</v>
+      </c>
+      <c r="B115" s="6">
         <v>10</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C115" s="6">
         <v>10</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D115" s="6">
+        <f t="shared" si="10"/>
+        <v>9.7960526315789469</v>
+      </c>
+      <c r="E115" s="6">
         <f t="shared" si="11"/>
-        <v>10.129251700680273</v>
-      </c>
-      <c r="E103" s="6">
+        <v>0.97960526315789465</v>
+      </c>
+      <c r="F115" s="7">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>1</v>
+      </c>
+      <c r="B116" s="2">
+        <v>16</v>
+      </c>
+      <c r="C116" s="2">
+        <v>16</v>
+      </c>
+      <c r="D116" s="2">
         <f t="shared" si="10"/>
-        <v>1.0129251700680273</v>
-      </c>
-      <c r="F103" s="7">
-        <v>1.47</v>
+        <v>10.71223021582734</v>
+      </c>
+      <c r="E116" s="2">
+        <f t="shared" si="11"/>
+        <v>0.66951438848920874</v>
+      </c>
+      <c r="F116" s="3">
+        <v>1.39</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>1</v>
-      </c>
-      <c r="B104" s="2">
-        <v>16</v>
-      </c>
-      <c r="C104" s="2">
-        <v>16</v>
-      </c>
-      <c r="D104" s="2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="5">
+        <v>2</v>
+      </c>
+      <c r="B117" s="6">
+        <v>20</v>
+      </c>
+      <c r="C117" s="6">
+        <v>20</v>
+      </c>
+      <c r="D117" s="6">
+        <f t="shared" si="10"/>
+        <v>8.9698795180722897</v>
+      </c>
+      <c r="E117" s="6">
         <f t="shared" si="11"/>
-        <v>11.453846153846154</v>
-      </c>
-      <c r="E104" s="2">
+        <v>0.44849397590361451</v>
+      </c>
+      <c r="F117" s="7">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>2</v>
+      </c>
+      <c r="B118" s="2">
+        <v>32</v>
+      </c>
+      <c r="C118" s="2">
+        <v>32</v>
+      </c>
+      <c r="D118" s="2">
         <f t="shared" si="10"/>
-        <v>0.71586538461538463</v>
-      </c>
-      <c r="F104" s="3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
-        <v>2</v>
-      </c>
-      <c r="B105" s="6">
-        <v>20</v>
-      </c>
-      <c r="C105" s="6">
-        <v>20</v>
-      </c>
-      <c r="D105" s="6">
+        <v>7.1586538461538458</v>
+      </c>
+      <c r="E118" s="2">
         <f t="shared" si="11"/>
-        <v>7.8368421052631589</v>
-      </c>
-      <c r="E105" s="6">
-        <f t="shared" si="10"/>
-        <v>0.39184210526315794</v>
-      </c>
-      <c r="F105" s="7">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>2</v>
-      </c>
-      <c r="B106" s="2">
-        <v>32</v>
-      </c>
-      <c r="C106" s="2">
-        <v>32</v>
-      </c>
-      <c r="D106" s="2">
-        <f t="shared" si="11"/>
-        <v>6.2041666666666675</v>
-      </c>
-      <c r="E106" s="2">
-        <f t="shared" si="10"/>
-        <v>0.19388020833333336</v>
-      </c>
-      <c r="F106" s="3">
-        <v>2.4</v>
+        <v>0.22370793269230768</v>
+      </c>
+      <c r="F118" s="3">
+        <v>2.08</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A94:F94"/>
+  <mergeCells count="8">
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A63:F63"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A39:M39"/>
     <mergeCell ref="A44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pioantonioperugini/CLionProjects/MPIrecommendationsystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C3505F-C279-7946-B0B9-7BAFD59F9C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE01FD3-4BD8-9748-AB3A-A695C1C264F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
   </bookViews>
@@ -11569,8 +11569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC550097-D982-EE4B-95F5-AEBD768E6E3D}">
   <dimension ref="A5:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pioantonioperugini/CLionProjects/MPIrecommendationsystem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ermannonicoletti/CLionProjects/recommendationSystemMPI_CPAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE01FD3-4BD8-9748-AB3A-A695C1C264F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6414AB10-411D-1E4A-AAF2-62839DDA9BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>nodi</t>
   </si>
   <si>
     <t>processi</t>
-  </si>
-  <si>
-    <t>speedup</t>
-  </si>
-  <si>
-    <t>effeciency</t>
   </si>
   <si>
     <t>exec_time</t>
@@ -78,6 +72,24 @@
   </si>
   <si>
     <t>OPT6 -&gt; send asincrone</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Opt3</t>
+  </si>
+  <si>
+    <t>Opt4</t>
+  </si>
+  <si>
+    <t>Opt5</t>
+  </si>
+  <si>
+    <t>Opt6</t>
   </si>
 </sst>
 </file>
@@ -244,6 +256,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -284,11 +321,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$6</c:f>
+              <c:f>Foglio1!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speedup</c:v>
+                  <c:v>Opt1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -343,7 +380,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$7:$D$15</c:f>
+              <c:f>Foglio1!$D$26:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -351,28 +388,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5542797494780793</c:v>
+                  <c:v>1.6237731733914942</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.925343811394892</c:v>
+                  <c:v>3.0892116182572615</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2181303116147308</c:v>
+                  <c:v>5.2989323843416374</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2801418439716317</c:v>
+                  <c:v>7.3712871287128712</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0819112627986351</c:v>
+                  <c:v>8.3184357541899434</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3905579399141628</c:v>
+                  <c:v>8.2722222222222221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6228710462287101</c:v>
+                  <c:v>5.5559701492537314</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.908203125</c:v>
+                  <c:v>4.1019283746556479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -380,1227 +417,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B738-DE40-87E0-7A8E06BB935E}"/>
+              <c16:uniqueId val="{00000000-16C2-4341-9DB4-5970B8BD52EB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1072196000"/>
-        <c:axId val="1072493264"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1072196000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1072493264"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1072493264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1072196000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$E$81</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>effeciency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Situazione Iniziale</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$C$82:$C$90</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$E$82:$E$90</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.83557800224466894</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0650929899856938</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1542635658914731</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0635714285714286</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.99932885906040281</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7214147286821706</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.37225000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.18687248995983935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA93-D947-ABC7-7B659D875486}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="231420768"/>
-        <c:axId val="231422480"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="231420768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="231422480"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="231422480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="231420768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$D$97</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>speedup</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$C$98:$C$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$D$98:$D$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6711560044893379</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2090517241379315</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.7937743190661486</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.7076023391812871</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.129251700680273</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.453846153846154</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.8368421052631589</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.2041666666666675</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-059F-864F-AFA5-502EEF0F743F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="459807328"/>
-        <c:axId val="460156320"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="459807328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="460156320"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="460156320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="459807328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$E$97</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>effeciency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$C$98:$C$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$E$98:$E$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.83557800224466894</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0696839080459772</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1587548638132297</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0884502923976609</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0129251700680273</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71586538461538463</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.39184210526315794</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19388020833333336</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B9B4-0141-857A-2058F992FFE8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1384909951"/>
-        <c:axId val="50948831"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1384909951"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="50948831"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50948831"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1384909951"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>effeciency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1647,7 +477,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$E$7:$E$15</c:f>
+              <c:f>Foglio1!$D$7:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1655,28 +485,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77713987473903967</c:v>
+                  <c:v>1.5542797494780793</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97511460379829729</c:v>
+                  <c:v>2.925343811394892</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84362606232294612</c:v>
+                  <c:v>4.2181303116147308</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66001773049645396</c:v>
+                  <c:v>5.2801418439716317</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50819112627986351</c:v>
+                  <c:v>5.0819112627986351</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39940987124463517</c:v>
+                  <c:v>6.3905579399141628</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1811435523114355</c:v>
+                  <c:v>3.6228710462287101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.088134765625E-2</c:v>
+                  <c:v>2.908203125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,333 +514,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-63BA-164F-A710-F7E8EC91CA61}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="753857056"/>
-        <c:axId val="1071803616"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="753857056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1071803616"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1071803616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="753857056"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$D$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>speedup</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Foglio1!$C$26:$C$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$D$26:$D$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6237731733914942</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0892116182572615</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2989323843416374</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.3712871287128712</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.3184357541899434</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.2722222222222221</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5559701492537314</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.1019283746556479</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-16C2-4341-9DB4-5970B8BD52EB}"/>
+              <c16:uniqueId val="{00000000-00F5-564A-B2EF-C4729D3CBD16}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2141,6 +645,2666 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Efficiency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$64:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$82:$E$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83557800224466894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0650929899856938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1542635658914731</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0635714285714286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99932885906040281</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7214147286821706</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37225000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18687248995983935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDA2-7244-ADFD-D2C78E2616B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Situazione di partenza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$64:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$7:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77713987473903967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97511460379829729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84362606232294612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66001773049645396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50819112627986351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39940987124463517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1811435523114355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.088134765625E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FDA2-7244-ADFD-D2C78E2616B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$64:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$64:$E$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83184357541899456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0743145743145743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1409961685823755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.069683908045977</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0129251700680273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73277559055118113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35966183574879229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18762600806451613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FDA2-7244-ADFD-D2C78E2616B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="668494400"/>
+        <c:axId val="668496112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="668494400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668496112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="668496112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668494400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$82:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$98:$D$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6711560044893379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2090517241379315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7937743190661486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7076023391812871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.129251700680273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.453846153846154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8368421052631589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2041666666666675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CBC-A94C-9E85-219DD630F4A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Situazione Iniziale</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$82:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$7:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5542797494780793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.925343811394892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2181303116147308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2801418439716317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0819112627986351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3905579399141628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6228710462287101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.908203125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2CBC-A94C-9E85-219DD630F4A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$82:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$82:$D$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6711560044893379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1952789699570814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7713178294573648</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5085714285714289</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9932885906040276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.54263565891473</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9799196787148592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2CBC-A94C-9E85-219DD630F4A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="668494400"/>
+        <c:axId val="668496112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="668494400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668496112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="668496112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668494400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Efficiency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$64:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$98:$E$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83557800224466894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0696839080459772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1587548638132297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0884502923976609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0129251700680273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71586538461538463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39184210526315794</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19388020833333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8576-5B4D-9C82-91513C78D094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Situazione di partenza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$64:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$7:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77713987473903967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97511460379829729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84362606232294612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66001773049645396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50819112627986351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39940987124463517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1811435523114355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.088134765625E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8576-5B4D-9C82-91513C78D094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$64:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$82:$E$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83557800224466894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0650929899856938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1542635658914731</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0635714285714286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99932885906040281</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7214147286821706</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37225000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18687248995983935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8576-5B4D-9C82-91513C78D094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="668494400"/>
+        <c:axId val="668496112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="668494400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668496112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="668496112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668494400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Efficiency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$7:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$26:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81188658669574709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0297372060857539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0597864768683274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9214108910891089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83184357541899434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51701388888888888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27779850746268658</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.128185261707989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3065-0740-BCDC-39AAB205F618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Situazione di partenza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$7:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$7:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77713987473903967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97511460379829729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84362606232294612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66001773049645396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50819112627986351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39940987124463517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1811435523114355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.088134765625E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3065-0740-BCDC-39AAB205F618}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="668494400"/>
+        <c:axId val="668496112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="668494400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668496112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="668496112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668494400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Situazione Iniziale</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$7:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$7:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5542797494780793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.925343811394892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2181303116147308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2801418439716317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0819112627986351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3905579399141628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6228710462287101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.908203125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-59D3-AC42-879B-8D24C27FE372}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="668494400"/>
+        <c:axId val="668496112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="668494400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668496112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="668496112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668494400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2200,6 +3364,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Efficiency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2236,15 +3425,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$25</c:f>
+              <c:f>Foglio1!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>effeciency</c:v>
+                  <c:v>Situazione di partenza</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2252,7 +3441,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2263,7 +3452,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$C$26:$C$34</c:f>
+              <c:f>Foglio1!$C$7:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2299,7 +3488,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$E$26:$E$34</c:f>
+              <c:f>Foglio1!$E$7:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2307,28 +3496,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81188658669574709</c:v>
+                  <c:v>0.77713987473903967</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0297372060857539</c:v>
+                  <c:v>0.97511460379829729</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0597864768683274</c:v>
+                  <c:v>0.84362606232294612</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9214108910891089</c:v>
+                  <c:v>0.66001773049645396</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83184357541899434</c:v>
+                  <c:v>0.50819112627986351</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51701388888888888</c:v>
+                  <c:v>0.39940987124463517</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27779850746268658</c:v>
+                  <c:v>0.1811435523114355</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.128185261707989</c:v>
+                  <c:v>9.088134765625E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2336,7 +3525,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-80F5-8343-A0E2-5AA183E2E89E}"/>
+              <c16:uniqueId val="{00000001-808D-964F-9CB3-6A2C388F7069}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2349,11 +3538,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="211965120"/>
-        <c:axId val="211966848"/>
+        <c:axId val="668494400"/>
+        <c:axId val="668496112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="211965120"/>
+        <c:axId val="668494400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2396,7 +3585,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211966848"/>
+        <c:crossAx val="668496112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2404,7 +3593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211966848"/>
+        <c:axId val="668496112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,7 +3644,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211965120"/>
+        <c:crossAx val="668494400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2467,6 +3656,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2526,6 +3746,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2566,11 +3811,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$45</c:f>
+              <c:f>Foglio1!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speedup</c:v>
+                  <c:v>Opt3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2589,7 +3834,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$C$46:$C$54</c:f>
+              <c:f>Foglio1!$C$26:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2662,7 +3907,209 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-69F2-6743-AA20-A6704A6602AC}"/>
+              <c16:uniqueId val="{00000000-924F-6340-B362-6E07E49D70A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Situazione Iniziale</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$26:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$7:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5542797494780793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.925343811394892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2181303116147308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2801418439716317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0819112627986351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3905579399141628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6228710462287101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.908203125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-924F-6340-B362-6E07E49D70A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$26:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$26:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6237731733914942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0892116182572615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2989323843416374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3712871287128712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3184357541899434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2722222222222221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5559701492537314</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1019283746556479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-924F-6340-B362-6E07E49D70A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2675,11 +4122,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="68407439"/>
-        <c:axId val="69116351"/>
+        <c:axId val="668494400"/>
+        <c:axId val="668496112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68407439"/>
+        <c:axId val="668494400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2722,7 +4169,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69116351"/>
+        <c:crossAx val="668496112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2730,7 +4177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69116351"/>
+        <c:axId val="668496112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2781,7 +4228,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68407439"/>
+        <c:crossAx val="668494400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2793,6 +4240,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2852,6 +4330,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Efficiency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2892,11 +4395,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$45</c:f>
+              <c:f>Foglio1!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>effeciency</c:v>
+                  <c:v>Opt3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2915,7 +4418,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$C$46:$C$54</c:f>
+              <c:f>Foglio1!$C$26:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2988,7 +4491,217 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-72CA-FC4C-8693-A944BD6EEBC5}"/>
+              <c16:uniqueId val="{00000000-7F1A-FA43-89DE-59A52B3EE217}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Situazione di partenza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$26:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$7:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77713987473903967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97511460379829729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84362606232294612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66001773049645396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50819112627986351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39940987124463517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1811435523114355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.088134765625E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F1A-FA43-89DE-59A52B3EE217}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$26:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$26:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81188658669574709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0297372060857539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0597864768683274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9214108910891089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83184357541899434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51701388888888888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27779850746268658</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.128185261707989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7F1A-FA43-89DE-59A52B3EE217}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3001,11 +4714,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="55844927"/>
-        <c:axId val="56206223"/>
+        <c:axId val="668494400"/>
+        <c:axId val="668496112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55844927"/>
+        <c:axId val="668494400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3048,7 +4761,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56206223"/>
+        <c:crossAx val="668496112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3056,7 +4769,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56206223"/>
+        <c:axId val="668496112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3107,7 +4820,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55844927"/>
+        <c:crossAx val="668494400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3119,6 +4832,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3178,6 +4922,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3218,11 +4987,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$63</c:f>
+              <c:f>Foglio1!$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speedup</c:v>
+                  <c:v>Opt4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3241,7 +5010,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$C$64:$C$72</c:f>
+              <c:f>Foglio1!$C$46:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3314,7 +5083,209 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-86B2-564F-9E6B-EB47D2BD1FAD}"/>
+              <c16:uniqueId val="{00000000-58CD-0C43-B904-CE16B9D528E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Situazione Iniziale</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$46:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$7:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5542797494780793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.925343811394892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2181303116147308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2801418439716317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0819112627986351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3905579399141628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6228710462287101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.908203125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-58CD-0C43-B904-CE16B9D528E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$46:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$46:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6308871851040525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1816239316239319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6832061068702293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3651685393258433</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9266666666666676</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.02962962962963</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.990610328638498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.004032258064516</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-58CD-0C43-B904-CE16B9D528E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3327,11 +5298,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="190618031"/>
-        <c:axId val="190141551"/>
+        <c:axId val="668494400"/>
+        <c:axId val="668496112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190618031"/>
+        <c:axId val="668494400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3374,7 +5345,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190141551"/>
+        <c:crossAx val="668496112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3382,7 +5353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190141551"/>
+        <c:axId val="668496112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3433,7 +5404,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190618031"/>
+        <c:crossAx val="668494400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3445,6 +5416,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3504,6 +5506,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Efficiency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3544,11 +5571,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$E$63</c:f>
+              <c:f>Foglio1!$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>effeciency</c:v>
+                  <c:v>Opt4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3567,7 +5594,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$C$64:$C$72</c:f>
+              <c:f>Foglio1!$C$46:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3640,7 +5667,217 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C393-2145-9491-13316E355A18}"/>
+              <c16:uniqueId val="{00000000-7DC8-2146-9487-B9D1D0D1874C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Situazione di partenza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$46:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$7:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77713987473903967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97511460379829729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84362606232294612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66001773049645396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50819112627986351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39940987124463517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1811435523114355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.088134765625E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7DC8-2146-9487-B9D1D0D1874C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$46:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$46:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81544359255202625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0605413105413106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1366412213740458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0456460674157304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99266666666666681</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68935185185185188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3495305164319249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18762600806451613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7DC8-2146-9487-B9D1D0D1874C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3653,11 +5890,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="230988192"/>
-        <c:axId val="230975312"/>
+        <c:axId val="668494400"/>
+        <c:axId val="668496112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="230988192"/>
+        <c:axId val="668494400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3700,7 +5937,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230975312"/>
+        <c:crossAx val="668496112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3708,7 +5945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230975312"/>
+        <c:axId val="668496112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3759,7 +5996,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230988192"/>
+        <c:crossAx val="668494400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3771,6 +6008,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3830,6 +6098,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3870,11 +6163,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$D$81</c:f>
+              <c:f>Foglio1!$A$80</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>speedup</c:v>
+                  <c:v>Opt5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3893,7 +6186,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$C$82:$C$90</c:f>
+              <c:f>Foglio1!$C$64:$C$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3966,7 +6259,209 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A0F9-6245-9D9F-E5893AA2E120}"/>
+              <c16:uniqueId val="{00000000-9A21-844B-B35A-3DBDDE2149AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Situazione Iniziale</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$64:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$7:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5542797494780793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.925343811394892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2181303116147308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2801418439716317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0819112627986351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3905579399141628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6228710462287101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.908203125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9A21-844B-B35A-3DBDDE2149AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$64:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$64:$D$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6636871508379891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.222943722943723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.704980842911878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5574712643678161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.129251700680273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.724409448818898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1932367149758463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.004032258064516</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9A21-844B-B35A-3DBDDE2149AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3979,11 +6474,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="459902528"/>
-        <c:axId val="459904240"/>
+        <c:axId val="668494400"/>
+        <c:axId val="668496112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="459902528"/>
+        <c:axId val="668494400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4026,7 +6521,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459904240"/>
+        <c:crossAx val="668496112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4034,7 +6529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459904240"/>
+        <c:axId val="668496112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4085,7 +6580,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459902528"/>
+        <c:crossAx val="668494400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4097,6 +6592,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -10818,78 +13344,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62136F3F-7F7F-6B4C-37A5-62E081246936}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafico 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD29129B-E17A-D567-17AC-A69599C9D360}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -10917,6 +13371,82 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Grafico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605AD886-B8BC-2D4D-B1FB-B69C61FA4A4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Grafico 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F8A571-3C5D-CB4F-BECB-8B2024FCB0D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
@@ -10926,26 +13456,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2">
+        <xdr:cNvPr id="16" name="Grafico 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FEEC3C7-896E-209B-4F8D-FEA154E800C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB16E0B-7EA8-834C-A941-756F5BF5C235}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10962,26 +13494,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Grafico 5">
+        <xdr:cNvPr id="17" name="Grafico 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084829B5-1F50-E95B-117C-6D339445D931}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5D369A-4D0F-7542-8E3C-A88CDA962EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10998,26 +13532,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Grafico 6">
+        <xdr:cNvPr id="18" name="Grafico 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB876FB-1CEE-1C2C-C0E9-392D78CF8447}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{730A1AC7-E899-C446-912D-8BA8CD41995D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11033,27 +13569,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Grafico 9">
+        <xdr:cNvPr id="19" name="Grafico 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B271D85F-6FB6-DD1F-3213-70966ACF4C12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D0C231-421F-854E-9663-F776EB36DD09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11070,26 +13608,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Grafico 10">
+        <xdr:cNvPr id="20" name="Grafico 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8A34A11-CC60-A854-F50F-4597D7A6859A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32DEF5A9-BCC8-444E-84BB-A64DB4FEB471}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11105,27 +13645,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Grafico 7">
+        <xdr:cNvPr id="21" name="Grafico 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F9052D-172C-C70C-2B0F-7707C9DB90E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC37B5E0-E045-9B42-A263-07561819A133}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11142,26 +13684,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Grafico 8">
+        <xdr:cNvPr id="22" name="Grafico 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E209863-55FA-EFE1-C1C4-2A29C2506BCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C5840D-8E98-2F40-9053-CD871FD3B97C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11177,27 +13721,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Grafico 12">
+        <xdr:cNvPr id="23" name="Grafico 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2031378E-5BB5-A15E-20C1-9A9D3010357E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C50FB7-E64B-4147-8048-F1BD36552D6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11214,26 +13760,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Grafico 13">
+        <xdr:cNvPr id="24" name="Grafico 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B6AFD2-1954-FF22-1CC5-E91BD0D757E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9F0E61-0EA7-EA48-91DD-01EF26AEBAC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11569,15 +14117,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC550097-D982-EE4B-95F5-AEBD768E6E3D}">
   <dimension ref="A5:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P94" sqref="P94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -11593,16 +14141,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -11803,7 +14351,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -11814,7 +14362,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -11830,16 +14378,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -12040,7 +14588,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -12052,7 +14600,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -12064,7 +14612,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -12080,16 +14628,16 @@
         <v>1</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -12290,7 +14838,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -12303,7 +14851,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -12319,16 +14867,16 @@
         <v>1</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -12529,7 +15077,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -12543,7 +15091,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -12559,16 +15107,16 @@
         <v>1</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -12769,7 +15317,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -12779,7 +15327,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -12795,16 +15343,16 @@
         <v>1</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ermannonicoletti/CLionProjects/recommendationSystemMPI_CPAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6414AB10-411D-1E4A-AAF2-62839DDA9BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B64F17-0766-6640-A09C-1D12CA90CC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="30240" windowHeight="17440" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -96,6 +96,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -208,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -218,6 +221,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,7 +430,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Situazione Iniziale</c:v>
+            <c:strRef>
+              <c:f>Foglio1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Situazione di partenza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -861,34 +874,34 @@
             <c:numRef>
               <c:f>Foglio1!$E$82:$E$90</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.83557800224466894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0650929899856938</c:v>
+                  <c:v>1.0813362381989833</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.1542635658914731</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0635714285714286</c:v>
+                  <c:v>1.1013313609467457</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99932885906040281</c:v>
+                  <c:v>1.0412587412587413</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7214147286821706</c:v>
+                  <c:v>0.7505040322580645</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.37225000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18687248995983935</c:v>
+                  <c:v>0.19307572614107885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,9 +1084,9 @@
             <c:numRef>
               <c:f>Foglio1!$E$64:$E$72</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1453,28 +1466,28 @@
             <c:numRef>
               <c:f>Foglio1!$D$98:$D$106</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.6711560044893379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2090517241379315</c:v>
+                  <c:v>3.2653508771929829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7937743190661486</c:v>
+                  <c:v>5.8853754940711474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7076023391812871</c:v>
+                  <c:v>9.0792682926829276</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.129251700680273</c:v>
+                  <c:v>10.789855072463769</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.453846153846154</c:v>
+                  <c:v>12.408333333333335</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.8368421052631589</c:v>
@@ -1496,7 +1509,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Situazione Iniziale</c:v>
+            <c:strRef>
+              <c:f>Foglio1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Situazione di partenza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1655,34 +1676,34 @@
             <c:numRef>
               <c:f>Foglio1!$D$82:$D$90</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.6711560044893379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1952789699570814</c:v>
+                  <c:v>3.2440087145969501</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.7713178294573648</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5085714285714289</c:v>
+                  <c:v>8.8106508875739653</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9932885906040276</c:v>
+                  <c:v>10.412587412587413</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.54263565891473</c:v>
+                  <c:v>12.008064516129032</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.4450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9799196787148592</c:v>
+                  <c:v>6.1784232365145231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2037,28 +2058,28 @@
             <c:numRef>
               <c:f>Foglio1!$E$98:$E$106</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.83557800224466894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0696839080459772</c:v>
+                  <c:v>1.0884502923976609</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1587548638132297</c:v>
+                  <c:v>1.1770750988142296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0884502923976609</c:v>
+                  <c:v>1.1349085365853659</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0129251700680273</c:v>
+                  <c:v>1.078985507246377</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71586538461538463</c:v>
+                  <c:v>0.77552083333333344</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.39184210526315794</c:v>
@@ -2247,34 +2268,34 @@
             <c:numRef>
               <c:f>Foglio1!$E$82:$E$90</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.83557800224466894</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0650929899856938</c:v>
+                  <c:v>1.0813362381989833</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.1542635658914731</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0635714285714286</c:v>
+                  <c:v>1.1013313609467457</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99932885906040281</c:v>
+                  <c:v>1.0412587412587413</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7214147286821706</c:v>
+                  <c:v>0.7505040322580645</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.37225000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18687248995983935</c:v>
+                  <c:v>0.19307572614107885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3054,7 +3075,15 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Situazione Iniziale</c:v>
+            <c:strRef>
+              <c:f>Foglio1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Situazione di partenza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3872,9 +3901,9 @@
             <c:numRef>
               <c:f>Foglio1!$D$46:$D$54</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -3915,7 +3944,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Situazione Iniziale</c:v>
+            <c:strRef>
+              <c:f>Foglio1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Situazione di partenza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4456,9 +4493,9 @@
             <c:numRef>
               <c:f>Foglio1!$E$46:$E$54</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -5048,9 +5085,9 @@
             <c:numRef>
               <c:f>Foglio1!$D$64:$D$72</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -5091,7 +5128,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Situazione Iniziale</c:v>
+            <c:strRef>
+              <c:f>Foglio1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Situazione di partenza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -5250,9 +5295,9 @@
             <c:numRef>
               <c:f>Foglio1!$D$46:$D$54</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -5632,9 +5677,9 @@
             <c:numRef>
               <c:f>Foglio1!$E$64:$E$72</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -5842,9 +5887,9 @@
             <c:numRef>
               <c:f>Foglio1!$E$46:$E$54</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -6224,34 +6269,34 @@
             <c:numRef>
               <c:f>Foglio1!$D$82:$D$90</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.6711560044893379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1952789699570814</c:v>
+                  <c:v>3.2440087145969501</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.7713178294573648</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5085714285714289</c:v>
+                  <c:v>8.8106508875739653</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9932885906040276</c:v>
+                  <c:v>10.412587412587413</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.54263565891473</c:v>
+                  <c:v>12.008064516129032</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7.4450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9799196787148592</c:v>
+                  <c:v>6.1784232365145231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6267,7 +6312,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Situazione Iniziale</c:v>
+            <c:strRef>
+              <c:f>Foglio1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Situazione di partenza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -6426,9 +6479,9 @@
             <c:numRef>
               <c:f>Foglio1!$D$64:$D$72</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -14117,21 +14170,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC550097-D982-EE4B-95F5-AEBD768E6E3D}">
   <dimension ref="A5:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P94" sqref="P94"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -14350,25 +14403,25 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
@@ -14587,38 +14640,38 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
@@ -14670,11 +14723,11 @@
       <c r="C47" s="6">
         <v>2</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="9">
         <f>F$7/F47</f>
         <v>1.6308871851040525</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="9">
         <f>D47/B47</f>
         <v>0.81544359255202625</v>
       </c>
@@ -14692,11 +14745,11 @@
       <c r="C48" s="6">
         <v>3</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="9">
         <f t="shared" ref="D48:D54" si="4">F$7/F48</f>
         <v>3.1816239316239319</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="9">
         <f t="shared" ref="E48:E54" si="5">D48/B48</f>
         <v>1.0605413105413106</v>
       </c>
@@ -14714,11 +14767,11 @@
       <c r="C49" s="6">
         <v>5</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="9">
         <f t="shared" si="4"/>
         <v>5.6832061068702293</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="9">
         <f t="shared" si="5"/>
         <v>1.1366412213740458</v>
       </c>
@@ -14736,11 +14789,11 @@
       <c r="C50" s="6">
         <v>8</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="9">
         <f t="shared" si="4"/>
         <v>8.3651685393258433</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="9">
         <f t="shared" si="5"/>
         <v>1.0456460674157304</v>
       </c>
@@ -14758,11 +14811,11 @@
       <c r="C51" s="6">
         <v>10</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="9">
         <f t="shared" si="4"/>
         <v>9.9266666666666676</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="9">
         <f t="shared" si="5"/>
         <v>0.99266666666666681</v>
       </c>
@@ -14780,11 +14833,11 @@
       <c r="C52" s="2">
         <v>16</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="10">
         <f t="shared" si="4"/>
         <v>11.02962962962963</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="10">
         <f t="shared" si="5"/>
         <v>0.68935185185185188</v>
       </c>
@@ -14802,11 +14855,11 @@
       <c r="C53" s="6">
         <v>20</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="9">
         <f t="shared" si="4"/>
         <v>6.990610328638498</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="9">
         <f t="shared" si="5"/>
         <v>0.3495305164319249</v>
       </c>
@@ -14824,11 +14877,11 @@
       <c r="C54" s="2">
         <v>32</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="10">
         <f t="shared" si="4"/>
         <v>6.004032258064516</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="10">
         <f t="shared" si="5"/>
         <v>0.18762600806451613</v>
       </c>
@@ -14837,27 +14890,27 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
@@ -14909,11 +14962,11 @@
       <c r="C65" s="6">
         <v>2</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="9">
         <f>F$7/F65</f>
         <v>1.6636871508379891</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="9">
         <f>D65/B65</f>
         <v>0.83184357541899456</v>
       </c>
@@ -14931,11 +14984,11 @@
       <c r="C66" s="6">
         <v>3</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="9">
         <f t="shared" ref="D66:D72" si="6">F$7/F66</f>
         <v>3.222943722943723</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="9">
         <f t="shared" ref="E66:E72" si="7">D66/B66</f>
         <v>1.0743145743145743</v>
       </c>
@@ -14953,11 +15006,11 @@
       <c r="C67" s="6">
         <v>5</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="9">
         <f t="shared" si="6"/>
         <v>5.704980842911878</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="9">
         <f t="shared" si="7"/>
         <v>1.1409961685823755</v>
       </c>
@@ -14975,11 +15028,11 @@
       <c r="C68" s="6">
         <v>8</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="9">
         <f t="shared" si="6"/>
         <v>8.5574712643678161</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="9">
         <f t="shared" si="7"/>
         <v>1.069683908045977</v>
       </c>
@@ -14997,11 +15050,11 @@
       <c r="C69" s="6">
         <v>10</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="9">
         <f t="shared" si="6"/>
         <v>10.129251700680273</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="9">
         <f t="shared" si="7"/>
         <v>1.0129251700680273</v>
       </c>
@@ -15019,11 +15072,11 @@
       <c r="C70" s="2">
         <v>16</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="10">
         <f t="shared" si="6"/>
         <v>11.724409448818898</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="10">
         <f t="shared" si="7"/>
         <v>0.73277559055118113</v>
       </c>
@@ -15041,11 +15094,11 @@
       <c r="C71" s="6">
         <v>20</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="9">
         <f t="shared" si="6"/>
         <v>7.1932367149758463</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="9">
         <f t="shared" si="7"/>
         <v>0.35966183574879229</v>
       </c>
@@ -15063,11 +15116,11 @@
       <c r="C72" s="2">
         <v>32</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="10">
         <f t="shared" si="6"/>
         <v>6.004032258064516</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="10">
         <f t="shared" si="7"/>
         <v>0.18762600806451613</v>
       </c>
@@ -15076,28 +15129,28 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
@@ -15149,11 +15202,11 @@
       <c r="C83" s="6">
         <v>2</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="9">
         <f>F$7/F83</f>
         <v>1.6711560044893379</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="9">
         <f>D83/B83</f>
         <v>0.83557800224466894</v>
       </c>
@@ -15171,16 +15224,16 @@
       <c r="C84" s="6">
         <v>3</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="9">
         <f>F$7/F84</f>
-        <v>3.1952789699570814</v>
-      </c>
-      <c r="E84" s="6">
+        <v>3.2440087145969501</v>
+      </c>
+      <c r="E84" s="9">
         <f t="shared" ref="E84:E90" si="8">D84/B84</f>
-        <v>1.0650929899856938</v>
+        <v>1.0813362381989833</v>
       </c>
       <c r="F84" s="7">
-        <v>4.66</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -15193,11 +15246,11 @@
       <c r="C85" s="6">
         <v>5</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="9">
         <f t="shared" ref="D85:D90" si="9">F$7/F85</f>
         <v>5.7713178294573648</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="9">
         <f t="shared" si="8"/>
         <v>1.1542635658914731</v>
       </c>
@@ -15215,16 +15268,16 @@
       <c r="C86" s="6">
         <v>8</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="9">
         <f t="shared" si="9"/>
-        <v>8.5085714285714289</v>
-      </c>
-      <c r="E86" s="6">
+        <v>8.8106508875739653</v>
+      </c>
+      <c r="E86" s="9">
         <f t="shared" si="8"/>
-        <v>1.0635714285714286</v>
+        <v>1.1013313609467457</v>
       </c>
       <c r="F86" s="8">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -15237,16 +15290,16 @@
       <c r="C87" s="6">
         <v>10</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="9">
         <f t="shared" si="9"/>
-        <v>9.9932885906040276</v>
-      </c>
-      <c r="E87" s="6">
+        <v>10.412587412587413</v>
+      </c>
+      <c r="E87" s="9">
         <f t="shared" si="8"/>
-        <v>0.99932885906040281</v>
+        <v>1.0412587412587413</v>
       </c>
       <c r="F87" s="7">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -15259,16 +15312,16 @@
       <c r="C88" s="2">
         <v>16</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="10">
         <f t="shared" si="9"/>
-        <v>11.54263565891473</v>
-      </c>
-      <c r="E88" s="2">
+        <v>12.008064516129032</v>
+      </c>
+      <c r="E88" s="10">
         <f t="shared" si="8"/>
-        <v>0.7214147286821706</v>
+        <v>0.7505040322580645</v>
       </c>
       <c r="F88" s="3">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -15281,11 +15334,11 @@
       <c r="C89" s="6">
         <v>20</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="9">
         <f t="shared" si="9"/>
         <v>7.4450000000000003</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="9">
         <f t="shared" si="8"/>
         <v>0.37225000000000003</v>
       </c>
@@ -15303,37 +15356,37 @@
       <c r="C90" s="2">
         <v>32</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="10">
         <f t="shared" si="9"/>
-        <v>5.9799196787148592</v>
-      </c>
-      <c r="E90" s="2">
+        <v>6.1784232365145231</v>
+      </c>
+      <c r="E90" s="10">
         <f t="shared" si="8"/>
-        <v>0.18687248995983935</v>
+        <v>0.19307572614107885</v>
       </c>
       <c r="F90" s="3">
-        <v>2.4900000000000002</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
@@ -15385,11 +15438,11 @@
       <c r="C99" s="6">
         <v>2</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="9">
         <f>F$7/F99</f>
         <v>1.6711560044893379</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="9">
         <f>D99/B99</f>
         <v>0.83557800224466894</v>
       </c>
@@ -15407,16 +15460,16 @@
       <c r="C100" s="6">
         <v>3</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="9">
         <f>F$7/F100</f>
-        <v>3.2090517241379315</v>
-      </c>
-      <c r="E100" s="6">
+        <v>3.2653508771929829</v>
+      </c>
+      <c r="E100" s="9">
         <f t="shared" ref="E100:E106" si="10">D100/B100</f>
-        <v>1.0696839080459772</v>
+        <v>1.0884502923976609</v>
       </c>
       <c r="F100" s="7">
-        <v>4.6399999999999997</v>
+        <v>4.5599999999999996</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -15429,16 +15482,16 @@
       <c r="C101" s="6">
         <v>5</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="9">
         <f t="shared" ref="D101:D106" si="11">F$7/F101</f>
-        <v>5.7937743190661486</v>
-      </c>
-      <c r="E101" s="6">
+        <v>5.8853754940711474</v>
+      </c>
+      <c r="E101" s="9">
         <f t="shared" si="10"/>
-        <v>1.1587548638132297</v>
+        <v>1.1770750988142296</v>
       </c>
       <c r="F101" s="7">
-        <v>2.57</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -15451,16 +15504,16 @@
       <c r="C102" s="6">
         <v>8</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="9">
         <f t="shared" si="11"/>
-        <v>8.7076023391812871</v>
-      </c>
-      <c r="E102" s="6">
+        <v>9.0792682926829276</v>
+      </c>
+      <c r="E102" s="9">
         <f t="shared" si="10"/>
-        <v>1.0884502923976609</v>
+        <v>1.1349085365853659</v>
       </c>
       <c r="F102" s="8">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -15473,16 +15526,16 @@
       <c r="C103" s="6">
         <v>10</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="9">
         <f t="shared" si="11"/>
-        <v>10.129251700680273</v>
-      </c>
-      <c r="E103" s="6">
+        <v>10.789855072463769</v>
+      </c>
+      <c r="E103" s="9">
         <f t="shared" si="10"/>
-        <v>1.0129251700680273</v>
+        <v>1.078985507246377</v>
       </c>
       <c r="F103" s="7">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -15495,16 +15548,16 @@
       <c r="C104" s="2">
         <v>16</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="10">
         <f t="shared" si="11"/>
-        <v>11.453846153846154</v>
-      </c>
-      <c r="E104" s="2">
+        <v>12.408333333333335</v>
+      </c>
+      <c r="E104" s="10">
         <f t="shared" si="10"/>
-        <v>0.71586538461538463</v>
+        <v>0.77552083333333344</v>
       </c>
       <c r="F104" s="3">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -15517,11 +15570,11 @@
       <c r="C105" s="6">
         <v>20</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="9">
         <f t="shared" si="11"/>
         <v>7.8368421052631589</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="9">
         <f t="shared" si="10"/>
         <v>0.39184210526315794</v>
       </c>
@@ -15539,11 +15592,11 @@
       <c r="C106" s="2">
         <v>32</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="10">
         <f t="shared" si="11"/>
         <v>6.2041666666666675</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="10">
         <f t="shared" si="10"/>
         <v>0.19388020833333336</v>
       </c>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ermannonicoletti/CLionProjects/recommendationSystemMPI_CPAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B64F17-0766-6640-A09C-1D12CA90CC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903287E1-B3FF-E44E-9185-B4D568328BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="30240" windowHeight="17440" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="30240" windowHeight="17440" xr2:uid="{68F6319D-D3D2-6245-9752-1271249BCC2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -2304,6 +2304,980 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8576-5B4D-9C82-91513C78D094}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="668494400"/>
+        <c:axId val="668496112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="668494400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668496112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="668496112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668494400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$82:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$98:$D$106</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6711560044893379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2653508771929829</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8853754940711474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0792682926829276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.789855072463769</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.408333333333335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8368421052631589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2041666666666675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7EBA-4643-8F29-296B966FBDA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Situazione di partenza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$82:$C$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$7:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5542797494780793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.925343811394892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2181303116147308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2801418439716317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0819112627986351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3905579399141628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6228710462287101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.908203125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7EBA-4643-8F29-296B966FBDA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="668494400"/>
+        <c:axId val="668496112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="668494400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668496112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="668496112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="668494400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Efficiency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Opt6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$64:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$98:$E$106</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83557800224466894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0884502923976609</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1770750988142296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1349085365853659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.078985507246377</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77552083333333344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39184210526315794</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19388020833333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8E1-814D-82B5-DA298231C96A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Situazione di partenza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$C$64:$C$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$7:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77713987473903967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97511460379829729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84362606232294612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66001773049645396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50819112627986351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39940987124463517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1811435523114355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.088134765625E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F8E1-814D-82B5-DA298231C96A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6880,6 +7854,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8749,6 +9803,1038 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13848,6 +15934,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26524D04-B587-8F4B-A429-679210865BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF02098-6012-FB48-AABC-2858220CFD33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14170,8 +16332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC550097-D982-EE4B-95F5-AEBD768E6E3D}">
   <dimension ref="A5:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+    <sheetView tabSelected="1" topLeftCell="F104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N141" sqref="N141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
